--- a/設計書/画面レイアウト/プロフィール閲覧画面.xlsx
+++ b/設計書/画面レイアウト/プロフィール閲覧画面.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egoshiiori/Desktop/SAKURA/設計書/画面レイアウト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{525F610C-C97A-E44A-8D73-669B755306AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EB2F67-1A31-1D42-B88E-B1BCA6A8AF72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="会員登録" sheetId="12" r:id="rId1"/>
+    <sheet name="(G6-3)プロフィール閲覧画面" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">会員登録!$A$1:$AK$63</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">会員登録!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'(G6-3)プロフィール閲覧画面'!$A$1:$AK$62</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'(G6-3)プロフィール閲覧画面'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -180,113 +180,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30ポイントを付与</t>
-    <rPh sb="7" eb="9">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10ポイントを付与</t>
-    <rPh sb="7" eb="9">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>①を押下するとプロフィール用の画像をアップロードできる</t>
-    <rPh sb="2" eb="4">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②学籍番号を入力する　（入力必須）</t>
-    <rPh sb="1" eb="3">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>会員登録</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>G2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019/9/6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>川口</t>
-    <rPh sb="0" eb="2">
-      <t>カワグチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名前を入力する　（入力必須）</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画像</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像アップロード</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学籍番号</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -360,183 +256,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワード再入力</t>
-    <rPh sb="5" eb="6">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>戻る</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ポイント</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワードボックス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チェックボックス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プルダウンリスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文字列</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ボタン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像をアップロードできる　(30ポイント付与）</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>趣味を選択する（10ポイントを付与）</t>
-    <rPh sb="0" eb="2">
-      <t>シュミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>性別を選択する（10ポイントを付与）</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学科を選択する（10ポイントを付与）</t>
-    <rPh sb="0" eb="2">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学校を選択する（10ポイントを付与）</t>
-    <rPh sb="0" eb="2">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学年を選択する（10ポイントを付与）</t>
-    <rPh sb="0" eb="2">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名前を入力する（10ポイントを付与）</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学籍番号を入力する（10ポイント付与）</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>年齢を選択する（10ポイントを付与）</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フヨ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -553,251 +273,135 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>自己紹介を入力する（50ポイントを付与）</t>
+    <t>プロフィール画像</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相手のプロフィール画像を表示</t>
     <rPh sb="0" eb="2">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>フヨ</t>
+      <t>アイテ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワードを入力する</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モゼィ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>⑫と同じパスワードを入力する</t>
-    <rPh sb="2" eb="3">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
+    <t>名前を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>⑬でパスワードが一致しない場合エラーメッセージを出力</t>
-    <rPh sb="8" eb="10">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュツリョク</t>
+    <t>性別を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>セイベテゥ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面に遷移する</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
+    <t>趣味を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>シュミ</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学校名を表示する</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ガッコウメイヲ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学科を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学年を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ガクネn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年齢を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイヲヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自己紹介を表示する</t>
+    <rPh sb="0" eb="4">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタンを押下時１ページ前へ遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>モドル</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会員登録を行いログイン画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
+    <t>ブロックボタンを押下時ポップアップで確認を取りブロックするを押下時DBから削除する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタン</t>
+    <rPh sb="0" eb="1">
+      <t>モドル</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1ページ前へ遷移する</t>
+    <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>付与するポイントを表示　（初回入力時のみ表示）</t>
-    <rPh sb="0" eb="2">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
+    <t>ブロックボタンを押下時ポップアップで確認を取る</t>
+    <rPh sb="18" eb="20">
+      <t>カクニn</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>button</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>varchar(128)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>varchar(128)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>性別を選択　（入力必須）</t>
+    <t>江越</t>
     <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒッス</t>
+      <t>エゴセィ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>それぞれに対応するポイントを付与</t>
-    <rPh sb="5" eb="7">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>フヨ</t>
-    </rPh>
+    <t>2019/9/10</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>⑫で入れたパスワードを再入力する</t>
-    <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>サイニュウリョク</t>
-    </rPh>
+    <t>プロフィール閲覧画面</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>戻るボタンを押下</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>→ログイン画面へ遷移する</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録ボタンを押下する</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>→DBにプロフィール情報を登録し、ログイン画面へ遷移する</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学籍番号が７桁でない場合、またはパスワード再入力が一致しない場合</t>
-  </si>
-  <si>
-    <t>→⑭にエラーメッセージを表示</t>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>成功時</t>
-    <rPh sb="0" eb="2">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学校名、学科、学年、年齢、出身地、自己紹介は任意で入力</t>
-    <rPh sb="0" eb="2">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガクネン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュッシン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
+    <t>G6-3</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1222,8 +826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="229267" y="791044"/>
-          <a:ext cx="4686234" cy="6414950"/>
+          <a:off x="229267" y="840903"/>
+          <a:ext cx="5244093" cy="6148721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,7 +1094,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>プロフィール登録</a:t>
+            <a:t>プロフィール</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2029,1306 +1633,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66841</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>61271</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>272938</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>113856</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="66" name="グループ化 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674284DB-5BDD-4561-9550-6F5CA7B8CFE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4867441" y="1737671"/>
-          <a:ext cx="523597" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="63" name="図 62">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA60630-8116-4476-98E1-C1E22A71D82D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="正方形/長方形 64">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF229B5-F9BC-4207-B936-FB70ADDEB0D5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>70184</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>33421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276281</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>86006</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="68" name="グループ化 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8647383A-FF02-42A8-8DBA-4F8BD482892C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4870784" y="2014621"/>
-          <a:ext cx="523597" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="69" name="図 68">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC562A1-D0B1-41C8-B5B3-ACA894EB0DD0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="正方形/長方形 69">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB628BE-C95F-483C-917C-B68E7FFC9241}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76868</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>282965</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>59269</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="グループ化 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E02D4D-FC16-4D7A-864F-95BB631147BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4877468" y="2597484"/>
-          <a:ext cx="523597" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="72" name="図 71">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E5BF0D-49FD-4E6E-B317-C793ACCCF9BA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="正方形/長方形 72">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33A2454-FD16-4600-BAFC-B8F94D3A00E3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>68848</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>149058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>274945</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>41222</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="74" name="グループ化 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4A252D-0D67-4FEA-BCB8-BA2A3269FC11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4869448" y="2282658"/>
-          <a:ext cx="523597" cy="196964"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="75" name="図 74">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC29A9F-C4DD-4608-8505-FF3E65F5CEAF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="正方形/長方形 75">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74187C83-9C9D-4A19-A682-A038D30DBC7C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>83553</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>20053</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2229</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>72638</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="77" name="グループ化 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67423F9-CD63-43FD-8E2C-BCF1F77915B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4884153" y="2915653"/>
-          <a:ext cx="553676" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="78" name="図 77">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291537E0-C9C8-4844-9E84-60F8F2A45791}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="正方形/長方形 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91663754-07E9-438B-9158-917A9BD107DD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>93579</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>40105</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12255</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>92690</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="80" name="グループ化 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754BCF52-4DC4-4C74-99EF-8B566A20FDAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4894179" y="3240505"/>
-          <a:ext cx="553676" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="81" name="図 80">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E5E05D-D490-47F3-8451-7F3C89627727}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="正方形/長方形 81">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F102D00-3596-41E4-9567-332965DBD5C6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>93579</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>36763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12255</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>89348</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="83" name="グループ化 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C683166-5FF8-4F6D-9F67-82C1F698F661}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4894179" y="3541963"/>
-          <a:ext cx="553676" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="84" name="図 83">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC9C3DE-B083-4534-AFF0-08E0C268246C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="正方形/長方形 84">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6342C56-515B-4DFA-8742-75561E9D2258}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>93579</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>6685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12255</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>59270</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="86" name="グループ化 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D94A3D-2165-4613-BCF2-49C14C0DA302}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4894179" y="3816685"/>
-          <a:ext cx="553676" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="87" name="図 86">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DD126A-6D62-46E1-8CC5-9BE27DFB899C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="正方形/長方形 87">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0DA8CA-879B-4E10-9687-ED509CD1D470}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>90715</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>11062</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97942</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="89" name="グループ化 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9EC9A6-3CA6-48D9-92F8-BEF0FCEDAF4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4891315" y="4160157"/>
-          <a:ext cx="555347" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="90" name="図 89">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EDE765-DB47-49FF-9BB2-6D666F69496A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="正方形/長方形 90">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0231B207-4F80-446F-A3D6-C79092F1E944}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>10</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>145143</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65490</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>84335</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="92" name="グループ化 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8E922E-1A2F-41A3-92AF-BE0C7EF7FDBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4945743" y="5060950"/>
-          <a:ext cx="555347" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="93" name="図 92">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8340A41-8CE8-4416-A1D0-FA1DB79C8F9E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="正方形/長方形 93">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1EA0E2-B627-4550-A15B-F41B4C280ECC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>50</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>20934</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -3524,136 +1828,6 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47301</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>254931</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95394</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="118" name="グループ化 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208F2EE4-F05F-46AF-9FD0-7A022EE9B319}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1317301" y="1414409"/>
-          <a:ext cx="525130" cy="204985"/>
-          <a:chOff x="4378157" y="1715613"/>
-          <a:chExt cx="493518" cy="213006"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="119" name="図 118">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C061D3D-C4B8-429C-8C43-4457AD84172A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4378157" y="1726755"/>
-            <a:ext cx="202978" cy="201864"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="正方形/長方形 119">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57784B1F-8B4F-4C92-A1F8-E1EADB54F250}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4489561" y="1715613"/>
-            <a:ext cx="382114" cy="210553"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>0</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4652,16 +2826,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>164277</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9478</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>126177</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>91616</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>148483</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4676,75 +2850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2154576" y="5430672"/>
-          <a:ext cx="2201965" cy="296965"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>170596</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>15797</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>97935</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>154801</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="正方形/長方形 170">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FB7CBB-E38C-4CFE-A7F8-8E7E7489D508}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2160895" y="5752911"/>
-          <a:ext cx="2201965" cy="296965"/>
+          <a:off x="443677" y="5749878"/>
+          <a:ext cx="1880423" cy="752522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4787,22 +2894,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>148618</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>275619</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>64851</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="正方形/長方形 173">
+        <xdr:cNvPr id="171" name="正方形/長方形 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C7109F-6627-4F83-97AB-624201C171E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FB7CBB-E38C-4CFE-A7F8-8E7E7489D508}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4810,8 +2917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3012873" y="6547255"/>
-          <a:ext cx="1272703" cy="575553"/>
+          <a:off x="3302001" y="5791199"/>
+          <a:ext cx="1765300" cy="698501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5777,16 +3884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>258704</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>155222</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>246004</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>56777</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>83895</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44077</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134695</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5801,7 +3908,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1846204" y="4727222"/>
+          <a:off x="881004" y="5387622"/>
           <a:ext cx="433073" cy="233473"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
@@ -5909,16 +4016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>94074</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144874</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>216370</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>89370</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>267170</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76670</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5933,7 +4040,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4894674" y="5404556"/>
+          <a:off x="3992974" y="5544256"/>
           <a:ext cx="439796" cy="171214"/>
           <a:chOff x="849021" y="1284146"/>
           <a:chExt cx="166446" cy="271951"/>
@@ -6041,148 +4148,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>242712</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>99248</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>235186</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>10210</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>27922</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="202" name="グループ化 201">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7360FF8-1251-4C91-92A7-CE0EF5495F93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="242712" y="5280848"/>
-          <a:ext cx="402498" cy="233474"/>
-          <a:chOff x="928345" y="1284146"/>
-          <a:chExt cx="177180" cy="289696"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="203" name="テキスト ボックス 202">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC9A40E-DC14-4313-9355-619E6F34F12D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="928345" y="1284146"/>
-            <a:ext cx="87122" cy="237131"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>⑮</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="204" name="直線コネクタ 203">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A6EFAC-D550-4DBE-A43F-72951336B097}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-            <a:endCxn id="203" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="1015466" y="1402715"/>
-            <a:ext cx="90059" cy="171127"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>108186</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>42334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>230482</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>61148</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>65382</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111948</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6197,7 +4172,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4908786" y="5681134"/>
+          <a:off x="12630386" y="6493934"/>
           <a:ext cx="439796" cy="171214"/>
           <a:chOff x="849021" y="1284146"/>
           <a:chExt cx="166446" cy="271951"/>
@@ -6301,404 +4276,6 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>150517</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>197555</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23518</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="213" name="グループ化 212">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D1C9C0-2D8E-4409-85E6-259E5A0A476D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1420517" y="1207911"/>
-          <a:ext cx="364538" cy="187207"/>
-          <a:chOff x="849021" y="1284146"/>
-          <a:chExt cx="166446" cy="271951"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="214" name="テキスト ボックス 213">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24195FC2-0F18-4578-852A-AE3C788EAE8A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="928345" y="1284146"/>
-            <a:ext cx="87122" cy="237131"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>⑰</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="215" name="直線コネクタ 214">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD1AE5D-5AD3-4347-B2E6-036037E8A0AB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-            <a:endCxn id="214" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="849021" y="1402712"/>
-            <a:ext cx="79324" cy="153385"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>51742</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>18814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>136740</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>107414</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="219" name="グループ化 218">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568F16BF-F898-4B36-9A0F-B536591D1821}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2909242" y="6572014"/>
-          <a:ext cx="402498" cy="241000"/>
-          <a:chOff x="928345" y="1284146"/>
-          <a:chExt cx="177180" cy="289696"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="テキスト ボックス 219">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC85DB5-53E0-4347-BD43-45C20A832172}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="928345" y="1284146"/>
-            <a:ext cx="87122" cy="237131"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>⑯</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="221" name="直線コネクタ 220">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBB9F42-BB06-4B90-B9D4-04B39C9E5611}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-            <a:endCxn id="220" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="1015466" y="1402715"/>
-            <a:ext cx="90059" cy="171127"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28221</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28222</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>206962</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>115376</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="222" name="正方形/長方形 221">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EFC0EC-67C7-428F-A58E-504335F07AB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1175925" y="1345259"/>
-          <a:ext cx="465667" cy="247080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99A0E3D-83B3-9746-A8FA-4B3BB230493F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9880600" y="3302000"/>
-          <a:ext cx="1574800" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7149,6 +4726,386 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="テキスト ボックス 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10B1A5B-B13E-2849-B85B-D4749F402023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="4330700"/>
+          <a:ext cx="1574800" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロレス最高</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD07557-8704-4A47-91CD-7AC713E58316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="5829300"/>
+          <a:ext cx="1638300" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>　戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="角丸四角形 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9239E3-077D-6A49-B5E7-1509B322EBE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3403600" y="5867400"/>
+          <a:ext cx="1638300" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ブロック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141111</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>109753</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>125432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形吹き出し 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E577DE6D-8874-174C-A4A8-42B6D297012E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4941711" y="2852953"/>
+          <a:ext cx="7258442" cy="3216079"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51278"/>
+            <a:gd name="adj2" fmla="val 54207"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>本当にブッロクしますか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>62715</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>297901</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>125432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="角丸四角形 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0697E1-1464-144C-9C41-91A73D197126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8576419" y="4860493"/>
+          <a:ext cx="2743828" cy="1034816"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>　いいえ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>141111</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="角丸四角形 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1A5C13-4F71-944E-99D9-C246016717DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5377902" y="4907531"/>
+          <a:ext cx="2649752" cy="1003457"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>ブロック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7449,10 +5406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
-  <dimension ref="A1:AQ66"/>
+  <dimension ref="A1:AQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR37" sqref="AR37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -7614,7 +5571,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="37" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
@@ -7623,12 +5580,12 @@
       <c r="N4" s="37"/>
       <c r="O4" s="38"/>
       <c r="P4" s="41" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="37"/>
       <c r="R4" s="38"/>
       <c r="S4" s="43" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="T4" s="44"/>
       <c r="U4" s="44"/>
@@ -7637,12 +5594,12 @@
       <c r="X4" s="44"/>
       <c r="Y4" s="45"/>
       <c r="Z4" s="41" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AA4" s="37"/>
       <c r="AB4" s="38"/>
       <c r="AC4" s="41" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AD4" s="37"/>
       <c r="AE4" s="38"/>
@@ -7839,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -7879,9 +5836,6 @@
       <c r="R10" s="10"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -7962,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -8002,9 +5956,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -8084,9 +6036,6 @@
       <c r="T15" s="1">
         <v>3</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -8124,9 +6073,6 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
       <c r="S16" s="9"/>
-      <c r="U16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -8206,9 +6152,7 @@
       <c r="T18" s="9">
         <v>4</v>
       </c>
-      <c r="U18" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -8247,9 +6191,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -8329,9 +6271,7 @@
       <c r="T21" s="9">
         <v>5</v>
       </c>
-      <c r="U21" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -8370,9 +6310,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
@@ -8452,9 +6390,7 @@
       <c r="T24" s="9">
         <v>6</v>
       </c>
-      <c r="U24" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
@@ -8533,9 +6469,7 @@
       <c r="T26" s="9">
         <v>7</v>
       </c>
-      <c r="U26" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -8615,9 +6549,7 @@
       <c r="T28" s="9">
         <v>8</v>
       </c>
-      <c r="U28" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -8695,9 +6627,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
-      <c r="U30" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -8777,9 +6707,7 @@
       <c r="T32" s="9">
         <v>9</v>
       </c>
-      <c r="U32" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
@@ -8853,9 +6781,6 @@
       <c r="R34" s="10"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
-      <c r="U34" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9"/>
@@ -8913,9 +6838,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
@@ -8991,9 +6914,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
-      <c r="U38" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
@@ -9056,9 +6977,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
-      <c r="U40" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -9458,7 +7377,7 @@
       </c>
       <c r="B50" s="50"/>
       <c r="C50" s="49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="51"/>
@@ -9466,7 +7385,7 @@
       <c r="G50" s="51"/>
       <c r="H50" s="50"/>
       <c r="I50" s="49" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J50" s="51"/>
       <c r="K50" s="51"/>
@@ -9494,7 +7413,7 @@
       <c r="W50" s="51"/>
       <c r="X50" s="50"/>
       <c r="Y50" s="58" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Z50" s="59"/>
       <c r="AA50" s="59"/>
@@ -9521,7 +7440,7 @@
       </c>
       <c r="B51" s="50"/>
       <c r="C51" s="49" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
@@ -9529,21 +7448,21 @@
       <c r="G51" s="51"/>
       <c r="H51" s="50"/>
       <c r="I51" s="49" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J51" s="51"/>
       <c r="K51" s="51"/>
       <c r="L51" s="50"/>
       <c r="M51" s="52" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="N51" s="53"/>
       <c r="O51" s="53"/>
       <c r="P51" s="54"/>
-      <c r="Q51" s="35" t="s">
+      <c r="Q51" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R51" s="35"/>
+      <c r="R51" s="50"/>
       <c r="S51" s="49" t="s">
         <v>15</v>
       </c>
@@ -9555,7 +7474,7 @@
       <c r="W51" s="51"/>
       <c r="X51" s="50"/>
       <c r="Y51" s="58" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="Z51" s="59"/>
       <c r="AA51" s="59"/>
@@ -9582,7 +7501,7 @@
       </c>
       <c r="B52" s="50"/>
       <c r="C52" s="49" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
@@ -9590,21 +7509,23 @@
       <c r="G52" s="51"/>
       <c r="H52" s="50"/>
       <c r="I52" s="49" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J52" s="51"/>
       <c r="K52" s="51"/>
       <c r="L52" s="50"/>
-      <c r="M52" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="35" t="s">
+      <c r="M52" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R52" s="35"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="R52" s="50"/>
       <c r="S52" s="49" t="s">
         <v>15</v>
       </c>
@@ -9616,7 +7537,7 @@
       <c r="W52" s="51"/>
       <c r="X52" s="50"/>
       <c r="Y52" s="58" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="Z52" s="59"/>
       <c r="AA52" s="59"/>
@@ -9643,7 +7564,7 @@
       </c>
       <c r="B53" s="50"/>
       <c r="C53" s="49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
@@ -9651,7 +7572,7 @@
       <c r="G53" s="51"/>
       <c r="H53" s="50"/>
       <c r="I53" s="49" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
@@ -9679,7 +7600,7 @@
       <c r="W53" s="51"/>
       <c r="X53" s="50"/>
       <c r="Y53" s="58" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="Z53" s="59"/>
       <c r="AA53" s="59"/>
@@ -9706,7 +7627,7 @@
       </c>
       <c r="B54" s="50"/>
       <c r="C54" s="49" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="51"/>
@@ -9714,7 +7635,7 @@
       <c r="G54" s="51"/>
       <c r="H54" s="50"/>
       <c r="I54" s="49" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J54" s="51"/>
       <c r="K54" s="51"/>
@@ -9727,10 +7648,10 @@
         <v>15</v>
       </c>
       <c r="P54" s="50"/>
-      <c r="Q54" s="35" t="s">
+      <c r="Q54" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R54" s="35"/>
+      <c r="R54" s="50"/>
       <c r="S54" s="49" t="s">
         <v>15</v>
       </c>
@@ -9742,7 +7663,7 @@
       <c r="W54" s="51"/>
       <c r="X54" s="50"/>
       <c r="Y54" s="58" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="Z54" s="59"/>
       <c r="AA54" s="59"/>
@@ -9769,7 +7690,7 @@
       </c>
       <c r="B55" s="50"/>
       <c r="C55" s="49" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
@@ -9777,7 +7698,7 @@
       <c r="G55" s="51"/>
       <c r="H55" s="50"/>
       <c r="I55" s="49" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J55" s="51"/>
       <c r="K55" s="51"/>
@@ -9790,10 +7711,10 @@
         <v>15</v>
       </c>
       <c r="P55" s="50"/>
-      <c r="Q55" s="35" t="s">
+      <c r="Q55" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R55" s="35"/>
+      <c r="R55" s="50"/>
       <c r="S55" s="49" t="s">
         <v>15</v>
       </c>
@@ -9805,7 +7726,7 @@
       <c r="W55" s="51"/>
       <c r="X55" s="50"/>
       <c r="Y55" s="58" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="Z55" s="59"/>
       <c r="AA55" s="59"/>
@@ -9831,32 +7752,32 @@
         <v>7</v>
       </c>
       <c r="B56" s="50"/>
-      <c r="C56" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
+      <c r="C56" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="50"/>
       <c r="I56" s="49" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J56" s="51"/>
       <c r="K56" s="51"/>
       <c r="L56" s="50"/>
-      <c r="M56" s="35" t="s">
+      <c r="M56" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="35"/>
+      <c r="N56" s="50"/>
       <c r="O56" s="49" t="s">
         <v>15</v>
       </c>
       <c r="P56" s="50"/>
-      <c r="Q56" s="35" t="s">
+      <c r="Q56" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R56" s="35"/>
+      <c r="R56" s="50"/>
       <c r="S56" s="49" t="s">
         <v>15</v>
       </c>
@@ -9868,7 +7789,7 @@
       <c r="W56" s="51"/>
       <c r="X56" s="50"/>
       <c r="Y56" s="58" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="Z56" s="59"/>
       <c r="AA56" s="59"/>
@@ -9894,32 +7815,32 @@
         <v>8</v>
       </c>
       <c r="B57" s="50"/>
-      <c r="C57" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
+      <c r="C57" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="50"/>
       <c r="I57" s="49" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J57" s="51"/>
       <c r="K57" s="51"/>
       <c r="L57" s="50"/>
-      <c r="M57" s="35" t="s">
+      <c r="M57" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N57" s="35"/>
+      <c r="N57" s="50"/>
       <c r="O57" s="49" t="s">
         <v>15</v>
       </c>
       <c r="P57" s="50"/>
-      <c r="Q57" s="35" t="s">
+      <c r="Q57" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R57" s="35"/>
+      <c r="R57" s="50"/>
       <c r="S57" s="49" t="s">
         <v>15</v>
       </c>
@@ -9931,7 +7852,7 @@
       <c r="W57" s="51"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="58" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Z57" s="59"/>
       <c r="AA57" s="59"/>
@@ -9957,32 +7878,32 @@
         <v>9</v>
       </c>
       <c r="B58" s="50"/>
-      <c r="C58" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
+      <c r="C58" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="54"/>
       <c r="I58" s="49" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J58" s="51"/>
       <c r="K58" s="51"/>
       <c r="L58" s="50"/>
-      <c r="M58" s="35" t="s">
+      <c r="M58" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N58" s="35"/>
+      <c r="N58" s="50"/>
       <c r="O58" s="49" t="s">
         <v>15</v>
       </c>
       <c r="P58" s="50"/>
-      <c r="Q58" s="35" t="s">
+      <c r="Q58" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R58" s="35"/>
+      <c r="R58" s="50"/>
       <c r="S58" s="49" t="s">
         <v>15</v>
       </c>
@@ -9993,27 +7914,21 @@
       </c>
       <c r="W58" s="51"/>
       <c r="X58" s="50"/>
-      <c r="Y58" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z58" s="59"/>
-      <c r="AA58" s="59"/>
-      <c r="AB58" s="59"/>
-      <c r="AC58" s="59"/>
-      <c r="AD58" s="59"/>
-      <c r="AE58" s="59"/>
-      <c r="AF58" s="59"/>
-      <c r="AG58" s="59"/>
-      <c r="AH58" s="59"/>
-      <c r="AI58" s="59"/>
-      <c r="AJ58" s="59"/>
-      <c r="AK58" s="60"/>
-      <c r="AL58" s="23"/>
-      <c r="AM58" s="23"/>
-      <c r="AN58" s="23"/>
-      <c r="AO58" s="23"/>
-      <c r="AP58" s="23"/>
-      <c r="AQ58" s="23"/>
+      <c r="Y58" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="56"/>
+      <c r="AC58" s="56"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="56"/>
+      <c r="AG58" s="56"/>
+      <c r="AH58" s="56"/>
+      <c r="AI58" s="56"/>
+      <c r="AJ58" s="56"/>
+      <c r="AK58" s="57"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="A59" s="49">
@@ -10021,7 +7936,7 @@
       </c>
       <c r="B59" s="50"/>
       <c r="C59" s="52" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D59" s="53"/>
       <c r="E59" s="53"/>
@@ -10029,19 +7944,17 @@
       <c r="G59" s="53"/>
       <c r="H59" s="54"/>
       <c r="I59" s="49" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J59" s="51"/>
       <c r="K59" s="51"/>
       <c r="L59" s="50"/>
-      <c r="M59" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N59" s="35"/>
-      <c r="O59" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P59" s="50"/>
+      <c r="M59" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="54"/>
       <c r="Q59" s="35" t="s">
         <v>15</v>
       </c>
@@ -10057,7 +7970,7 @@
       <c r="W59" s="51"/>
       <c r="X59" s="50"/>
       <c r="Y59" s="55" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Z59" s="56"/>
       <c r="AA59" s="56"/>
@@ -10078,41 +7991,45 @@
       </c>
       <c r="B60" s="50"/>
       <c r="C60" s="52" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D60" s="53"/>
       <c r="E60" s="53"/>
       <c r="F60" s="53"/>
       <c r="G60" s="53"/>
       <c r="H60" s="54"/>
-      <c r="I60" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="35" t="s">
+      <c r="I60" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="R60" s="50"/>
       <c r="S60" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="T60" s="51"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="49" t="s">
+      <c r="T60" s="50"/>
+      <c r="U60" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="W60" s="51"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="49" t="s">
+        <v>15</v>
+      </c>
       <c r="X60" s="50"/>
       <c r="Y60" s="55" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="Z60" s="56"/>
       <c r="AA60" s="56"/>
@@ -10133,7 +8050,7 @@
       </c>
       <c r="B61" s="50"/>
       <c r="C61" s="52" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D61" s="53"/>
       <c r="E61" s="53"/>
@@ -10141,7 +8058,7 @@
       <c r="G61" s="53"/>
       <c r="H61" s="54"/>
       <c r="I61" s="35" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
@@ -10154,10 +8071,10 @@
         <v>15</v>
       </c>
       <c r="P61" s="50"/>
-      <c r="Q61" s="35" t="s">
+      <c r="Q61" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R61" s="35"/>
+      <c r="R61" s="50"/>
       <c r="S61" s="49" t="s">
         <v>15</v>
       </c>
@@ -10169,7 +8086,7 @@
       <c r="W61" s="51"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="55" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Z61" s="56"/>
       <c r="AA61" s="56"/>
@@ -10185,49 +8102,31 @@
       <c r="AK61" s="57"/>
     </row>
     <row r="62" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A62" s="49">
-        <v>13</v>
-      </c>
+      <c r="A62" s="49"/>
       <c r="B62" s="50"/>
-      <c r="C62" s="52" t="s">
-        <v>42</v>
-      </c>
+      <c r="C62" s="52"/>
       <c r="D62" s="53"/>
       <c r="E62" s="53"/>
       <c r="F62" s="53"/>
       <c r="G62" s="53"/>
       <c r="H62" s="54"/>
-      <c r="I62" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N62" s="35"/>
-      <c r="O62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P62" s="50"/>
-      <c r="Q62" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="I62" s="52"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
-      <c r="S62" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="S62" s="49"/>
       <c r="T62" s="51"/>
       <c r="U62" s="50"/>
-      <c r="V62" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="V62" s="49"/>
       <c r="W62" s="51"/>
       <c r="X62" s="50"/>
-      <c r="Y62" s="55" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y62" s="55"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10242,102 +8141,70 @@
       <c r="AK62" s="57"/>
     </row>
     <row r="63" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A63" s="49">
-        <v>14</v>
-      </c>
+      <c r="A63" s="49"/>
       <c r="B63" s="50"/>
-      <c r="C63" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="52" t="s">
-        <v>72</v>
-      </c>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="52"/>
       <c r="N63" s="53"/>
       <c r="O63" s="53"/>
       <c r="P63" s="54"/>
-      <c r="Q63" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
-      <c r="S63" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="S63" s="49"/>
       <c r="T63" s="51"/>
       <c r="U63" s="50"/>
-      <c r="V63" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="V63" s="49"/>
       <c r="W63" s="51"/>
       <c r="X63" s="50"/>
-      <c r="Y63" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z63" s="56"/>
-      <c r="AA63" s="56"/>
-      <c r="AB63" s="56"/>
-      <c r="AC63" s="56"/>
-      <c r="AD63" s="56"/>
-      <c r="AE63" s="56"/>
-      <c r="AF63" s="56"/>
-      <c r="AG63" s="56"/>
-      <c r="AH63" s="56"/>
-      <c r="AI63" s="56"/>
-      <c r="AJ63" s="56"/>
-      <c r="AK63" s="57"/>
+      <c r="Y63" s="58"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="59"/>
+      <c r="AC63" s="59"/>
+      <c r="AD63" s="59"/>
+      <c r="AE63" s="59"/>
+      <c r="AF63" s="59"/>
+      <c r="AG63" s="59"/>
+      <c r="AH63" s="59"/>
+      <c r="AI63" s="59"/>
+      <c r="AJ63" s="59"/>
+      <c r="AK63" s="60"/>
     </row>
     <row r="64" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A64" s="49">
-        <v>15</v>
-      </c>
+      <c r="A64" s="49"/>
       <c r="B64" s="50"/>
-      <c r="C64" s="35" t="s">
-        <v>44</v>
-      </c>
+      <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="35" t="s">
-        <v>52</v>
-      </c>
+      <c r="I64" s="35"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="35"/>
-      <c r="M64" s="52" t="s">
-        <v>70</v>
-      </c>
+      <c r="M64" s="52"/>
       <c r="N64" s="53"/>
       <c r="O64" s="53"/>
       <c r="P64" s="54"/>
-      <c r="Q64" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
-      <c r="S64" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="S64" s="49"/>
       <c r="T64" s="51"/>
       <c r="U64" s="50"/>
-      <c r="V64" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="V64" s="49"/>
       <c r="W64" s="51"/>
       <c r="X64" s="50"/>
-      <c r="Y64" s="58" t="s">
-        <v>67</v>
-      </c>
+      <c r="Y64" s="58"/>
       <c r="Z64" s="59"/>
       <c r="AA64" s="59"/>
       <c r="AB64" s="59"/>
@@ -10352,47 +8219,31 @@
       <c r="AK64" s="60"/>
     </row>
     <row r="65" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A65" s="49">
-        <v>16</v>
-      </c>
+      <c r="A65" s="49"/>
       <c r="B65" s="50"/>
-      <c r="C65" s="35" t="s">
-        <v>45</v>
-      </c>
+      <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="35" t="s">
-        <v>52</v>
-      </c>
+      <c r="I65" s="35"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="35"/>
-      <c r="M65" s="52" t="s">
-        <v>70</v>
-      </c>
+      <c r="M65" s="52"/>
       <c r="N65" s="53"/>
       <c r="O65" s="53"/>
       <c r="P65" s="54"/>
-      <c r="Q65" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
-      <c r="S65" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="S65" s="49"/>
       <c r="T65" s="51"/>
       <c r="U65" s="50"/>
-      <c r="V65" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="V65" s="49"/>
       <c r="W65" s="51"/>
       <c r="X65" s="50"/>
-      <c r="Y65" s="58" t="s">
-        <v>68</v>
-      </c>
+      <c r="Y65" s="58"/>
       <c r="Z65" s="59"/>
       <c r="AA65" s="59"/>
       <c r="AB65" s="59"/>
@@ -10406,71 +8257,8 @@
       <c r="AJ65" s="59"/>
       <c r="AK65" s="60"/>
     </row>
-    <row r="66" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A66" s="49">
-        <v>17</v>
-      </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R66" s="35"/>
-      <c r="S66" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="T66" s="51"/>
-      <c r="U66" s="50"/>
-      <c r="V66" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="W66" s="51"/>
-      <c r="X66" s="50"/>
-      <c r="Y66" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z66" s="59"/>
-      <c r="AA66" s="59"/>
-      <c r="AB66" s="59"/>
-      <c r="AC66" s="59"/>
-      <c r="AD66" s="59"/>
-      <c r="AE66" s="59"/>
-      <c r="AF66" s="59"/>
-      <c r="AG66" s="59"/>
-      <c r="AH66" s="59"/>
-      <c r="AI66" s="59"/>
-      <c r="AJ66" s="59"/>
-      <c r="AK66" s="60"/>
-    </row>
   </sheetData>
-  <mergeCells count="172">
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AK66"/>
-    <mergeCell ref="M66:P66"/>
+  <mergeCells count="165">
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="I65:L65"/>
@@ -10487,12 +8275,6 @@
     <mergeCell ref="V64:X64"/>
     <mergeCell ref="Y64:AK64"/>
     <mergeCell ref="M64:P64"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="Y58:AK58"/>
-    <mergeCell ref="Y57:AK57"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="Y54:AK54"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="I63:L63"/>
@@ -10501,37 +8283,38 @@
     <mergeCell ref="V63:X63"/>
     <mergeCell ref="Y63:AK63"/>
     <mergeCell ref="M63:P63"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="Y57:AK57"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="Y53:AK53"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="C62:H62"/>
-    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AK62"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:H61"/>
     <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="O53:P53"/>
     <mergeCell ref="S53:U53"/>
     <mergeCell ref="V53:X53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
     <mergeCell ref="S48:U49"/>
     <mergeCell ref="V48:X49"/>
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="S50:U50"/>
     <mergeCell ref="V50:X50"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
     <mergeCell ref="S51:U51"/>
     <mergeCell ref="V51:X51"/>
     <mergeCell ref="M48:P49"/>
     <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
     <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AK62"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:H61"/>
     <mergeCell ref="I61:L61"/>
     <mergeCell ref="M61:N61"/>
     <mergeCell ref="Q61:R61"/>
@@ -10542,20 +8325,21 @@
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:H60"/>
     <mergeCell ref="I60:L60"/>
+    <mergeCell ref="M60:N60"/>
     <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="O60:P60"/>
     <mergeCell ref="Y60:AK60"/>
-    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="W60:X60"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="C59:H59"/>
     <mergeCell ref="I59:L59"/>
-    <mergeCell ref="M59:N59"/>
     <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="O59:P59"/>
     <mergeCell ref="S59:U59"/>
     <mergeCell ref="V59:X59"/>
     <mergeCell ref="Y59:AK59"/>
+    <mergeCell ref="M59:P59"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="I58:L58"/>
@@ -10564,6 +8348,7 @@
     <mergeCell ref="O58:P58"/>
     <mergeCell ref="S58:U58"/>
     <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AK58"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="C57:H57"/>
     <mergeCell ref="I57:L57"/>
@@ -10593,15 +8378,19 @@
     <mergeCell ref="I54:L54"/>
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="I53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
     <mergeCell ref="Q53:R53"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
     <mergeCell ref="Q52:R52"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:H51"/>

--- a/設計書/画面レイアウト/プロフィール閲覧画面.xlsx
+++ b/設計書/画面レイアウト/プロフィール閲覧画面.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egoshiiori/Desktop/SAKURA/設計書/画面レイアウト/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EB2F67-1A31-1D42-B88E-B1BCA6A8AF72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DF3DF6-9BBA-4BFC-B171-B33CBB2F8F1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(G6-3)プロフィール閲覧画面" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'(G6-3)プロフィール閲覧画面'!$A$1:$AK$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'(G6-3)プロフィール閲覧画面'!$A$1:$AK$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'(G6-3)プロフィール閲覧画面'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -260,19 +260,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>出身地を選択する（10ポイントを付与）</t>
-    <rPh sb="0" eb="3">
-      <t>シュッシンチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロフィール画像</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -347,31 +334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>戻るボタンを押下時１ページ前へ遷移する</t>
-    <rPh sb="0" eb="1">
-      <t>モドル</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブロックボタンを押下時ポップアップで確認を取りブロックするを押下時DBから削除する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>戻るボタン</t>
-    <rPh sb="0" eb="1">
-      <t>モドル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブロックボタン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1ページ前へ遷移する</t>
     <rPh sb="6" eb="8">
       <t>センイ</t>
@@ -402,6 +364,104 @@
   </si>
   <si>
     <t>G6-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタンを押下する</t>
+    <rPh sb="0" eb="1">
+      <t>モドル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→１つ前のページに遷移する</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックボタンを押下する</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→下のpopを表示する</t>
+    <rPh sb="1" eb="2">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はいボタンを押下する</t>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→DBから削除し、ブロックする</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モドル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBから削除し、ブロックする</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポップアップを戻す</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出身地を表示する</t>
+    <rPh sb="0" eb="3">
+      <t>シュッシンチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>川口</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -663,17 +723,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,12 +778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,41 +819,20 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,13 +865,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>229267</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104303</xdr:rowOff>
+      <xdr:rowOff>76206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>37760</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>131624</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -826,8 +886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="229267" y="840903"/>
-          <a:ext cx="5244093" cy="6148721"/>
+          <a:off x="229267" y="769597"/>
+          <a:ext cx="4800907" cy="6178909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,135 +975,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>48108</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>221288</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76970</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A48720D-F9D8-4052-853A-34E97267F795}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="336744" y="865909"/>
-          <a:ext cx="750453" cy="721591"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>240530</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28863</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="加算記号 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B987F50B-EEC0-4FCF-8FC1-7E4C376A7639}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="529166" y="1048711"/>
-          <a:ext cx="365606" cy="384849"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathPlus">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1084,7 +1015,7 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -1104,9 +1035,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112147</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>99434</xdr:rowOff>
+      <xdr:colOff>95289</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15142</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1210588" cy="521425"/>
     <xdr:sp macro="" textlink="">
@@ -1122,7 +1053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="429647" y="4519034"/>
+          <a:off x="387501" y="4162310"/>
           <a:ext cx="1210588" cy="521425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1162,14 +1093,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>89642</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>151468</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47397</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>87587</xdr:rowOff>
+      <xdr:rowOff>14598</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1184,10 +1115,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="407142" y="1523068"/>
-          <a:ext cx="1227755" cy="2831719"/>
-          <a:chOff x="402418" y="1787845"/>
-          <a:chExt cx="954107" cy="2973958"/>
+          <a:off x="380995" y="1491451"/>
+          <a:ext cx="1123167" cy="2803794"/>
+          <a:chOff x="402418" y="1831446"/>
+          <a:chExt cx="954107" cy="2857688"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1203,7 +1134,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="457473" y="3239139"/>
+            <a:off x="531717" y="3181004"/>
             <a:ext cx="697627" cy="521425"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1250,7 +1181,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="468311" y="1787845"/>
+            <a:off x="474498" y="1831446"/>
             <a:ext cx="697627" cy="521425"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1297,7 +1228,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="474766" y="2509808"/>
+            <a:off x="499515" y="2495275"/>
             <a:ext cx="697627" cy="521425"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1344,7 +1275,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="464986" y="2152109"/>
+            <a:off x="489733" y="2173909"/>
             <a:ext cx="697627" cy="521425"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1391,7 +1322,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="402418" y="2876874"/>
+            <a:off x="402418" y="2840540"/>
             <a:ext cx="954107" cy="521425"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1438,7 +1369,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="439757" y="3874175"/>
+            <a:off x="538748" y="3823307"/>
             <a:ext cx="657468" cy="528387"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1485,7 +1416,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="426711" y="3567827"/>
+            <a:off x="531890" y="3495159"/>
             <a:ext cx="697627" cy="521425"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1532,7 +1463,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="413476" y="4251675"/>
+            <a:off x="481533" y="4179006"/>
             <a:ext cx="817154" cy="510128"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1571,16 +1502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>168888</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>237799</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>62094</xdr:rowOff>
+      <xdr:rowOff>83991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>118068</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>155207</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>103774</xdr:rowOff>
+      <xdr:rowOff>125671</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1595,8 +1526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2073888" y="1890894"/>
-          <a:ext cx="901680" cy="498880"/>
+          <a:off x="2871181" y="1889383"/>
+          <a:ext cx="826330" cy="527268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1611,7 +1542,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1639,10 +1570,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>265165</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14598</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
+      <xdr:rowOff>94885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1657,8 +1588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="307033" y="851319"/>
-          <a:ext cx="816429" cy="732692"/>
+          <a:off x="312888" y="846667"/>
+          <a:ext cx="869526" cy="737184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,16 +1631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>265165</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14598</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>82763</xdr:rowOff>
+      <xdr:rowOff>82762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>81947</xdr:colOff>
+      <xdr:colOff>81945</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:rowOff>47443</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1724,10 +1655,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1217665" y="997163"/>
-          <a:ext cx="451782" cy="267394"/>
-          <a:chOff x="1120165" y="917763"/>
-          <a:chExt cx="386782" cy="282594"/>
+          <a:off x="1180010" y="911997"/>
+          <a:ext cx="358700" cy="278446"/>
+          <a:chOff x="1160117" y="917763"/>
+          <a:chExt cx="346830" cy="284673"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1801,8 +1732,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="1120165" y="1056858"/>
-            <a:ext cx="209835" cy="143499"/>
+            <a:off x="1160117" y="1056859"/>
+            <a:ext cx="169884" cy="145577"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -1833,16 +1764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100000</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>130000</xdr:rowOff>
+      <xdr:rowOff>130001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>27438</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>118283</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>137190</xdr:rowOff>
+      <xdr:rowOff>93384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1857,8 +1788,75 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095000" y="1605000"/>
-          <a:ext cx="2207438" cy="327190"/>
+          <a:off x="2620930" y="1611668"/>
+          <a:ext cx="1332255" cy="287108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>267695</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="正方形/長方形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2078D45B-A02C-4CD8-B0BA-9AD5814916A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2901077" y="1977256"/>
+          <a:ext cx="778187" cy="276372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1901,82 +1899,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>105000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>10000</xdr:rowOff>
+      <xdr:colOff>199215</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>32438</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>150000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2078D45B-A02C-4CD8-B0BA-9AD5814916A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2100000" y="1965000"/>
-          <a:ext cx="2207438" cy="300000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15002</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>44998</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100001</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133597</xdr:rowOff>
+      <xdr:rowOff>111693</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1991,10 +1922,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1920002" y="1568998"/>
-          <a:ext cx="402499" cy="240999"/>
-          <a:chOff x="928345" y="1284146"/>
-          <a:chExt cx="177180" cy="289696"/>
+          <a:off x="2238686" y="1430616"/>
+          <a:ext cx="372284" cy="294724"/>
+          <a:chOff x="928344" y="1284145"/>
+          <a:chExt cx="399007" cy="264362"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2010,8 +1941,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="928345" y="1284146"/>
-            <a:ext cx="87122" cy="237131"/>
+            <a:off x="928344" y="1284145"/>
+            <a:ext cx="199504" cy="237131"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2068,8 +1999,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="1015466" y="1402715"/>
-            <a:ext cx="90059" cy="171127"/>
+            <a:off x="1127848" y="1402712"/>
+            <a:ext cx="199503" cy="145795"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -2100,141 +2031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>55000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165287</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>115000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>155000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="星: 16 pt 148">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5319D4A9-798E-4639-BF09-9C9E143886CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2020000" y="1370000"/>
-          <a:ext cx="90000" cy="100000"/>
-        </a:xfrm>
-        <a:prstGeom prst="star16">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>250000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95001</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="正方形/長方形 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA564237-F1D6-4058-BF27-202387BA5670}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1960000" y="1275001"/>
-          <a:ext cx="1390000" cy="295000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>は入力必須項目</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100874</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152099</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>250286</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89843</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2249,8 +2055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1920875" y="1892300"/>
-          <a:ext cx="402499" cy="240999"/>
+          <a:off x="2496111" y="1928656"/>
+          <a:ext cx="376351" cy="245481"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -2357,16 +2163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127618</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>146294</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>34499</xdr:rowOff>
+      <xdr:rowOff>22048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>194137</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>136228</xdr:rowOff>
+      <xdr:rowOff>123777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2381,8 +2187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2350118" y="2320499"/>
-          <a:ext cx="701519" cy="254129"/>
+          <a:off x="2779676" y="2313028"/>
+          <a:ext cx="1055226" cy="263592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2425,15 +2231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>92586</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152613</xdr:rowOff>
+      <xdr:colOff>274595</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>22499</xdr:colOff>
+      <xdr:colOff>116703</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>137501</xdr:rowOff>
+      <xdr:rowOff>151726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2448,8 +2254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2087586" y="2597613"/>
-          <a:ext cx="2209913" cy="304888"/>
+          <a:off x="2320082" y="2597744"/>
+          <a:ext cx="2213524" cy="285044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2491,16 +2297,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>92764</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123628</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>14265</xdr:rowOff>
+      <xdr:rowOff>50575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>22677</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44956</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>159770</xdr:rowOff>
+      <xdr:rowOff>134867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2515,8 +2321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2106088" y="2950206"/>
-          <a:ext cx="2230854" cy="306123"/>
+          <a:off x="2461327" y="2938982"/>
+          <a:ext cx="1708319" cy="241637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2558,14 +2364,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101423</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>31336</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292213</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>17961</xdr:rowOff>
     </xdr:to>
@@ -2582,8 +2388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2107847" y="3258785"/>
-          <a:ext cx="2222968" cy="302388"/>
+          <a:off x="3023274" y="3236170"/>
+          <a:ext cx="483275" cy="299579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2625,16 +2431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112388</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>62644</xdr:rowOff>
+      <xdr:rowOff>68263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>313504</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292213</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>42945</xdr:rowOff>
+      <xdr:rowOff>48564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2649,8 +2455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2323100" y="3567844"/>
-          <a:ext cx="1165404" cy="285101"/>
+          <a:off x="3034512" y="3586051"/>
+          <a:ext cx="472037" cy="294991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,16 +2498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>128379</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>269734</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>72157</xdr:rowOff>
+      <xdr:rowOff>89017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>23783</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106770</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>43618</xdr:rowOff>
+      <xdr:rowOff>39337</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2716,8 +2522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2350879" y="3882157"/>
-          <a:ext cx="1165404" cy="276261"/>
+          <a:off x="2899646" y="3921495"/>
+          <a:ext cx="747389" cy="265010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2826,16 +2632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>126177</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>111078</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31293</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>255461</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2850,8 +2656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="443677" y="5749878"/>
-          <a:ext cx="1880423" cy="752522"/>
+          <a:off x="907155" y="5329757"/>
+          <a:ext cx="1391984" cy="626105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2894,15 +2700,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>214588</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>58391</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124081</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2917,8 +2723,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3302001" y="5791199"/>
-          <a:ext cx="1765300" cy="698501"/>
+          <a:off x="3134128" y="5356482"/>
+          <a:ext cx="1332769" cy="592082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2960,16 +2766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>35748</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>48199</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>97366</xdr:rowOff>
+      <xdr:rowOff>122268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120747</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133198</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>26039</xdr:rowOff>
+      <xdr:rowOff>50941</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2984,8 +2790,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1940748" y="2230966"/>
-          <a:ext cx="402499" cy="233473"/>
+          <a:off x="2379023" y="2206562"/>
+          <a:ext cx="376351" cy="242438"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3093,13 +2899,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1882</xdr:colOff>
+      <xdr:colOff>180369</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>100658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>86881</xdr:colOff>
+      <xdr:colOff>265368</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>29332</xdr:rowOff>
     </xdr:to>
@@ -3116,8 +2922,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1906882" y="2539058"/>
-          <a:ext cx="402499" cy="233474"/>
+          <a:off x="1928487" y="2498717"/>
+          <a:ext cx="376352" cy="242439"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3224,16 +3030,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13171</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41268</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>144874</xdr:rowOff>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>98170</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>126268</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>73547</xdr:rowOff>
+      <xdr:rowOff>79167</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3248,8 +3054,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1918171" y="2888074"/>
-          <a:ext cx="402499" cy="233473"/>
+          <a:off x="2080739" y="2862318"/>
+          <a:ext cx="376353" cy="242437"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3356,16 +3162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15052</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15051</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:rowOff>150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>100051</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>122466</xdr:rowOff>
+      <xdr:rowOff>88749</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3380,8 +3186,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1920052" y="3234267"/>
-          <a:ext cx="402499" cy="240999"/>
+          <a:off x="2637227" y="3182621"/>
+          <a:ext cx="376353" cy="245481"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3488,16 +3294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>21168</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>64441</xdr:rowOff>
+      <xdr:rowOff>47582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>106166</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>640</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141126</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3512,8 +3318,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1926168" y="3569641"/>
-          <a:ext cx="402498" cy="240999"/>
+          <a:off x="2643343" y="3543817"/>
+          <a:ext cx="376352" cy="250427"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3620,16 +3426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>48449</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166458</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>42804</xdr:rowOff>
+      <xdr:rowOff>20327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133447</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251456</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>131403</xdr:rowOff>
+      <xdr:rowOff>108926</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3644,8 +3450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1953449" y="3852804"/>
-          <a:ext cx="402498" cy="240999"/>
+          <a:off x="2497282" y="3830327"/>
+          <a:ext cx="376350" cy="245481"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3776,8 +3582,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1955800" y="4064941"/>
-          <a:ext cx="402499" cy="233473"/>
+          <a:off x="1798918" y="4069423"/>
+          <a:ext cx="376352" cy="242438"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3884,16 +3690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>246004</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>53622</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>231406</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44077</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>134695</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29479</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3908,8 +3714,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="881004" y="5387622"/>
-          <a:ext cx="433073" cy="233473"/>
+          <a:off x="522759" y="5246367"/>
+          <a:ext cx="380779" cy="237957"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -4016,16 +3822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>144874</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57856</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57642</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>267170</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76670</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189769</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14597</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4040,10 +3846,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3992974" y="5544256"/>
-          <a:ext cx="439796" cy="171214"/>
-          <a:chOff x="849021" y="1284146"/>
-          <a:chExt cx="166446" cy="271951"/>
+          <a:off x="2679818" y="5279795"/>
+          <a:ext cx="423480" cy="270508"/>
+          <a:chOff x="928345" y="1284146"/>
+          <a:chExt cx="170396" cy="421280"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4111,13 +3917,13 @@
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks/>
-            <a:endCxn id="200" idx="3"/>
+            <a:endCxn id="200" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="849021" y="1402712"/>
-            <a:ext cx="79324" cy="153385"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1015467" y="1402713"/>
+            <a:ext cx="83274" cy="302713"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -4148,23 +3954,744 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>235186</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>93134</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>121219</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>65382</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>111948</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形吹き出し 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E577DE6D-8874-174C-A4A8-42B6D297012E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5978160" y="2472765"/>
+          <a:ext cx="3591663" cy="2554941"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -95374"/>
+            <a:gd name="adj2" fmla="val 68827"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>72989</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>270057</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A232DB82-A1A7-4215-9045-B822D3350F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="34275" r="40244" b="49264"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="364943" y="889278"/>
+          <a:ext cx="780976" cy="643480"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="333333"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="381000" dist="292100" dir="5400000" sx="-80000" sy="-18000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="22000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="3000000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="7620">
+          <a:bevelT w="95250" h="31750"/>
+          <a:contourClr>
+            <a:srgbClr val="333333"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>201577</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>252941</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64228890-B188-450B-9B2D-396548554558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2542361" y="1532757"/>
+          <a:ext cx="1545482" cy="454281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>エゴブリン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63815</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9DBB53-F267-4E30-B4BA-F17D0BC911D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2642363" y="2544683"/>
+          <a:ext cx="1546142" cy="440728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>麻生情報ビジネス専門学校</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>197355</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246129</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036A38F4-467F-46E4-816E-7C251E6CC4DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2535054" y="2883462"/>
+          <a:ext cx="1543553" cy="440729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>情報システム専攻科</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205192</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256556</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E9C16E-B9D8-4EE7-AE70-D918AA3DFC9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545976" y="2265829"/>
+          <a:ext cx="1545482" cy="454281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>映画鑑賞</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89911</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>151725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320310</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41746</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8DEE9A-C526-4C3C-86A4-8836FBB63A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3012035" y="3197477"/>
+          <a:ext cx="522611" cy="362057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162965</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214329</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE1C3FC-00E3-48BB-9DF6-00B80FA181CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2500664" y="3860575"/>
+          <a:ext cx="1546143" cy="440729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>長崎県</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>674</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>85755</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="正方形/長方形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F647ADC-89AC-4AC8-94F4-658DB4700F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7047488" y="2456383"/>
+          <a:ext cx="1546143" cy="440729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153074</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>51924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>204438</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="正方形/長方形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1397B830-DF20-4647-83A8-76645B91F7AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2490773" y="3569712"/>
+          <a:ext cx="1546143" cy="440729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>46</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>歳</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78672</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>130036</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29509F64-DC60-493B-9404-4D84FD3A2F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2416371" y="4315752"/>
+          <a:ext cx="1546143" cy="440729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>世界を変えたいです。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>116781</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>48610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162188</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119670</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="210" name="グループ化 209">
+        <xdr:cNvPr id="99" name="グループ化 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1EDF43A-E220-4539-A2B1-F2BED1B35D0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC582A0-2C32-4DD3-8DDD-30F526F1DF95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4172,18 +4699,848 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12630386" y="6493934"/>
-          <a:ext cx="439796" cy="171214"/>
-          <a:chOff x="849021" y="1284146"/>
-          <a:chExt cx="166446" cy="271951"/>
+          <a:off x="990840" y="5270551"/>
+          <a:ext cx="1210819" cy="541707"/>
+          <a:chOff x="824211" y="6088897"/>
+          <a:chExt cx="1184037" cy="539177"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="テキスト ボックス 210">
+          <xdr:cNvPr id="100" name="四角形: 角を丸くする 99">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B062081B-2758-4012-BBA8-163431354894}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF74FA7-455B-4358-B85D-64432A19B930}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="824211" y="6088897"/>
+            <a:ext cx="1184037" cy="495492"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="正方形/長方形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802CB994-BE33-410C-92F7-383BA2109223}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="994124" y="6109534"/>
+            <a:ext cx="797606" cy="518540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="6E747A">
+                      <a:alpha val="43000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>戻る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257557</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18101</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>113768</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="102" name="グループ化 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE23147-8F67-4C28-BF44-079336A436A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3171086" y="5274629"/>
+          <a:ext cx="1247191" cy="531727"/>
+          <a:chOff x="3049715" y="6087717"/>
+          <a:chExt cx="1184038" cy="529197"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="四角形: 角を丸くする 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03484EA1-93C2-43B0-B11F-DAFB66592666}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3049715" y="6087717"/>
+            <a:ext cx="1184038" cy="495492"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="正方形/長方形 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D97EC83-AA96-42FE-AA6A-B91979A1CF6B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3246876" y="6098374"/>
+            <a:ext cx="797606" cy="518540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="6E747A">
+                      <a:alpha val="43000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>ブロック</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>97117</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>283881</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C5AA75-E4AA-4EED-9274-BB4E7B8A7CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6245411" y="3077882"/>
+          <a:ext cx="3100294" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>本当にブロックしますか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>224701</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123354</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="115" name="グループ化 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4620352-DCAC-4EF1-AED7-55E341F30817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8075706" y="4176059"/>
+          <a:ext cx="1210819" cy="541707"/>
+          <a:chOff x="824211" y="6088897"/>
+          <a:chExt cx="1184037" cy="539177"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="四角形: 角を丸くする 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02525473-2487-4EF9-AD0C-BF0B6C9B318B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="824211" y="6088897"/>
+            <a:ext cx="1184037" cy="495492"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="正方形/長方形 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5876FAA-EB5B-47A9-BA21-FEFE1F66F415}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="994124" y="6109534"/>
+            <a:ext cx="797606" cy="518540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="6E747A">
+                      <a:alpha val="43000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>いいえ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>231588</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120845</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="118" name="グループ化 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CEBF9F-D590-4749-82B9-395DF79E7AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6379882" y="4183530"/>
+          <a:ext cx="1225177" cy="531727"/>
+          <a:chOff x="3049715" y="6087717"/>
+          <a:chExt cx="1184038" cy="529197"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="四角形: 角を丸くする 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205FA3B9-F640-427F-B1DD-EA65C5C3E9ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3049715" y="6087717"/>
+            <a:ext cx="1184038" cy="495492"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="正方形/長方形 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F467AA6C-354B-40FB-A7AD-CF33EF63E527}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3246876" y="6098374"/>
+            <a:ext cx="797606" cy="518540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="6E747A">
+                      <a:alpha val="43000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>はい</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>97117</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687B9318-D05B-4529-BDB2-7CD818910833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305176" y="4108824"/>
+          <a:ext cx="1397000" cy="627529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41367D7-1E8E-488A-9BFF-F527289FB608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8008470" y="4108824"/>
+          <a:ext cx="1344706" cy="649942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>209176</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>49950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136037</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="124" name="グループ化 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F703C0F0-36A1-4CB5-AAE5-68B2B4E2EF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8396941" y="3832411"/>
+          <a:ext cx="423480" cy="270508"/>
+          <a:chOff x="928345" y="1284146"/>
+          <a:chExt cx="170396" cy="421280"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="テキスト ボックス 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA491859-FA62-4A5F-8A62-D9921552ED78}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="928345" y="1284146"/>
+            <a:ext cx="87122" cy="237131"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑭</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="131" name="直線コネクタ 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AADD404-FE4C-440D-868A-B2D5AF1AF0C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:endCxn id="130" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1015467" y="1402713"/>
+            <a:ext cx="83274" cy="302713"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>40341</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>172468</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>124085</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="132" name="グループ化 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9389951-B382-4AD7-A514-6050D20B1855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6771341" y="3820459"/>
+          <a:ext cx="423480" cy="270508"/>
+          <a:chOff x="928345" y="1284146"/>
+          <a:chExt cx="170396" cy="421280"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="テキスト ボックス 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920F73C7-80EA-478A-B5C0-2DC59EACC3D2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4234,22 +5591,22 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="212" name="直線コネクタ 211">
+          <xdr:cNvPr id="134" name="直線コネクタ 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D01E2DD-AC08-49E0-9F57-D51A82F72190}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54AAB68-A4B1-440D-8F73-A29664D99F01}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks/>
-            <a:endCxn id="211" idx="3"/>
+            <a:endCxn id="133" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="849021" y="1402712"/>
-            <a:ext cx="79324" cy="153385"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1015467" y="1402713"/>
+            <a:ext cx="83274" cy="302713"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -4276,834 +5633,6 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A955EB2F-D757-D346-9D61-21C6BA408559}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2400300" y="1651000"/>
-          <a:ext cx="1333500" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>小村</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="テキスト ボックス 207">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDA7390-9DE6-9841-AFD3-F1F56AE03C3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2336800" y="2298700"/>
-          <a:ext cx="1574800" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>野球</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="テキスト ボックス 208">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C1BB00-4E82-DA44-83E7-6D04E86100F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2349500" y="2590800"/>
-          <a:ext cx="2044700" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>麻生情報ビジネス専門学校</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="216" name="テキスト ボックス 215">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F8AAEA-E82C-E840-9C46-78418EB93E2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2349500" y="2908300"/>
-          <a:ext cx="1612900" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報システム専攻科</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="217" name="テキスト ボックス 216">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0EB7AF-FF9B-B748-8E16-E610022C1BA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2374900" y="3213100"/>
-          <a:ext cx="584200" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>３年</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="218" name="テキスト ボックス 217">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678009A6-7A49-A54F-A042-FBD5F7E17ADA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2362200" y="3568700"/>
-          <a:ext cx="1270000" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>２３</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="223" name="テキスト ボックス 222">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F074610D-F852-444A-9088-FE14C341290C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2387600" y="3860800"/>
-          <a:ext cx="1574800" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>福岡県</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="テキスト ボックス 223">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10B1A5B-B13E-2849-B85B-D4749F402023}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2451100" y="4330700"/>
-          <a:ext cx="1574800" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>プロレス最高</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD07557-8704-4A47-91CD-7AC713E58316}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635000" y="5829300"/>
-          <a:ext cx="1638300" cy="558800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>　戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="角丸四角形 224">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9239E3-077D-6A49-B5E7-1509B322EBE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3403600" y="5867400"/>
-          <a:ext cx="1638300" cy="558800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>ブロック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>141111</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109753</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>109753</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>125432</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形吹き出し 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E577DE6D-8874-174C-A4A8-42B6D297012E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4941711" y="2852953"/>
-          <a:ext cx="7258442" cy="3216079"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -51278"/>
-            <a:gd name="adj2" fmla="val 54207"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
-            <a:t>本当にブッロクしますか？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>62715</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>31357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>297901</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>125432</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="角丸四角形 226">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0697E1-1464-144C-9C41-91A73D197126}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8576419" y="4860493"/>
-          <a:ext cx="2743828" cy="1034816"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
-            <a:t>　いいえ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78395</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>141111</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="228" name="角丸四角形 227">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1A5C13-4F71-944E-99D9-C246016717DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5377902" y="4907531"/>
-          <a:ext cx="2649752" cy="1003457"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
-            <a:t>ブロック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5406,64 +5935,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
-  <dimension ref="A1:AQ65"/>
+  <dimension ref="A1:AQ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ25" sqref="AQ25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="17" customWidth="1"/>
-    <col min="7" max="11" width="4.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13" max="33" width="4.1640625" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.1640625" style="18" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="17" customWidth="1"/>
+    <col min="7" max="11" width="4.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6328125" style="1" customWidth="1"/>
+    <col min="13" max="33" width="4.1796875" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.1796875" style="18" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -5504,156 +6033,156 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" ht="14">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:37" ht="12">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="25" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="25" t="s">
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="25" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="25" t="s">
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="25" t="s">
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="25" t="s">
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="25" t="s">
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="27"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="59"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="30"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="60">
+        <v>43719</v>
+      </c>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="39"/>
     </row>
-    <row r="5" spans="1:37" ht="14">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="33"/>
+    <row r="5" spans="1:37" ht="12">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="42"/>
     </row>
-    <row r="6" spans="1:37" ht="14">
+    <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5796,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -5874,7 +6403,9 @@
       <c r="R11" s="10"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="U11" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -5912,12 +6443,8 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="9">
-        <v>2</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -5955,8 +6482,12 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
+      <c r="T13" s="9">
+        <v>2</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -6033,8 +6564,8 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="1">
-        <v>3</v>
+      <c r="U15" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
@@ -6149,9 +6680,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="10"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="9">
-        <v>4</v>
-      </c>
+      <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
@@ -6268,9 +6797,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="9">
-        <v>5</v>
-      </c>
+      <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
@@ -6387,9 +6914,7 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="10"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="9">
-        <v>6</v>
-      </c>
+      <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
@@ -6466,9 +6991,7 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="9">
-        <v>7</v>
-      </c>
+      <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -6546,9 +7069,7 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="10"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="9">
-        <v>8</v>
-      </c>
+      <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
@@ -6704,9 +7225,7 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="10"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="9">
-        <v>9</v>
-      </c>
+      <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
@@ -6802,8 +7321,12 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="10"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="T35" s="9">
+        <v>3</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
@@ -6876,7 +7399,9 @@
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
+      <c r="U37" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -6958,354 +7483,506 @@
       <c r="AK39" s="10"/>
     </row>
     <row r="40" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="9"/>
-      <c r="AJ40" s="9"/>
-      <c r="AK40" s="10"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="10"/>
+      <c r="A41" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" s="26"/>
+      <c r="S41" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="T41" s="38"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="W41" s="38"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="38"/>
+      <c r="AJ41" s="38"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="23"/>
+      <c r="AQ41" s="23"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="10"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+      <c r="AK42" s="42"/>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="23"/>
+      <c r="AP42" s="23"/>
+      <c r="AQ42" s="23"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="10"/>
+      <c r="A43" s="24">
+        <v>1</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="25"/>
+      <c r="O43" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="R43" s="26"/>
+      <c r="S43" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T43" s="27"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W43" s="27"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="9"/>
-      <c r="AJ44" s="9"/>
-      <c r="AK44" s="10"/>
+      <c r="A44" s="24">
+        <v>2</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" s="25"/>
+      <c r="S44" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T44" s="27"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W44" s="27"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="9"/>
-      <c r="AI45" s="9"/>
-      <c r="AJ45" s="9"/>
-      <c r="AK45" s="10"/>
+      <c r="A45" s="24">
+        <v>3</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="25"/>
+      <c r="O45" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R45" s="25"/>
+      <c r="S45" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T45" s="27"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W45" s="27"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="10"/>
+      <c r="A46" s="24">
+        <v>4</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="25"/>
+      <c r="O46" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" s="25"/>
+      <c r="S46" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T46" s="27"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W46" s="27"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="15"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="15"/>
-      <c r="AG47" s="15"/>
-      <c r="AH47" s="15"/>
-      <c r="AI47" s="15"/>
-      <c r="AJ47" s="15"/>
-      <c r="AK47" s="16"/>
+      <c r="A47" s="24">
+        <v>5</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="25"/>
+      <c r="O47" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R47" s="25"/>
+      <c r="S47" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T47" s="27"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W47" s="27"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="23"/>
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="23"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="R48" s="35"/>
-      <c r="S48" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="T48" s="29"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="W48" s="29"/>
-      <c r="X48" s="30"/>
+      <c r="A48" s="24">
+        <v>6</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" s="25"/>
+      <c r="O48" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" s="25"/>
+      <c r="S48" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T48" s="27"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W48" s="27"/>
+      <c r="X48" s="25"/>
       <c r="Y48" s="28" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Z48" s="29"/>
       <c r="AA48" s="29"/>
@@ -7327,43 +8004,61 @@
       <c r="AQ48" s="23"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="32"/>
-      <c r="AH49" s="32"/>
-      <c r="AI49" s="32"/>
-      <c r="AJ49" s="32"/>
-      <c r="AK49" s="33"/>
+      <c r="A49" s="24">
+        <v>7</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" s="25"/>
+      <c r="O49" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R49" s="25"/>
+      <c r="S49" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T49" s="27"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W49" s="27"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="30"/>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23"/>
       <c r="AN49" s="23"/>
@@ -7372,61 +8067,61 @@
       <c r="AQ49" s="23"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="49">
-        <v>1</v>
-      </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="49" t="s">
+      <c r="A50" s="24">
+        <v>8</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N50" s="50"/>
-      <c r="O50" s="49" t="s">
+      <c r="N50" s="25"/>
+      <c r="O50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="35" t="s">
+      <c r="P50" s="25"/>
+      <c r="Q50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R50" s="35"/>
-      <c r="S50" s="49" t="s">
+      <c r="R50" s="25"/>
+      <c r="S50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T50" s="51"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="49" t="s">
+      <c r="T50" s="27"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W50" s="51"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z50" s="59"/>
-      <c r="AA50" s="59"/>
-      <c r="AB50" s="59"/>
-      <c r="AC50" s="59"/>
-      <c r="AD50" s="59"/>
-      <c r="AE50" s="59"/>
-      <c r="AF50" s="59"/>
-      <c r="AG50" s="59"/>
-      <c r="AH50" s="59"/>
-      <c r="AI50" s="59"/>
-      <c r="AJ50" s="59"/>
-      <c r="AK50" s="60"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="30"/>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
       <c r="AN50" s="23"/>
@@ -7435,986 +8130,431 @@
       <c r="AQ50" s="23"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="49">
-        <v>2</v>
-      </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="49" t="s">
+      <c r="A51" s="24">
+        <v>9</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R51" s="50"/>
-      <c r="S51" s="49" t="s">
+      <c r="N51" s="25"/>
+      <c r="O51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T51" s="51"/>
-      <c r="U51" s="50"/>
-      <c r="V51" s="49" t="s">
+      <c r="P51" s="25"/>
+      <c r="Q51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W51" s="51"/>
-      <c r="X51" s="50"/>
-      <c r="Y51" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z51" s="59"/>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="59"/>
-      <c r="AC51" s="59"/>
-      <c r="AD51" s="59"/>
-      <c r="AE51" s="59"/>
-      <c r="AF51" s="59"/>
-      <c r="AG51" s="59"/>
-      <c r="AH51" s="59"/>
-      <c r="AI51" s="59"/>
-      <c r="AJ51" s="59"/>
-      <c r="AK51" s="60"/>
-      <c r="AL51" s="23"/>
-      <c r="AM51" s="23"/>
-      <c r="AN51" s="23"/>
-      <c r="AO51" s="23"/>
-      <c r="AP51" s="23"/>
-      <c r="AQ51" s="23"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T51" s="27"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W51" s="27"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="36"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="49">
-        <v>3</v>
-      </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="49" t="s">
+      <c r="A52" s="24">
+        <v>10</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N52" s="50"/>
-      <c r="O52" s="49" t="s">
+      <c r="R52" s="26"/>
+      <c r="S52" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="49" t="s">
+      <c r="T52" s="27"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R52" s="50"/>
-      <c r="S52" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="T52" s="51"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="W52" s="51"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z52" s="59"/>
-      <c r="AA52" s="59"/>
-      <c r="AB52" s="59"/>
-      <c r="AC52" s="59"/>
-      <c r="AD52" s="59"/>
-      <c r="AE52" s="59"/>
-      <c r="AF52" s="59"/>
-      <c r="AG52" s="59"/>
-      <c r="AH52" s="59"/>
-      <c r="AI52" s="59"/>
-      <c r="AJ52" s="59"/>
-      <c r="AK52" s="60"/>
-      <c r="AL52" s="23"/>
-      <c r="AM52" s="23"/>
-      <c r="AN52" s="23"/>
-      <c r="AO52" s="23"/>
-      <c r="AP52" s="23"/>
-      <c r="AQ52" s="23"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="36"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="49">
-        <v>4</v>
-      </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="49" t="s">
+      <c r="A53" s="24">
+        <v>11</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N53" s="50"/>
-      <c r="O53" s="49" t="s">
+      <c r="N53" s="26"/>
+      <c r="O53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="49" t="s">
+      <c r="P53" s="25"/>
+      <c r="Q53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R53" s="50"/>
-      <c r="S53" s="49" t="s">
+      <c r="R53" s="25"/>
+      <c r="S53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T53" s="51"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="49" t="s">
+      <c r="T53" s="25"/>
+      <c r="U53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W53" s="51"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z53" s="59"/>
-      <c r="AA53" s="59"/>
-      <c r="AB53" s="59"/>
-      <c r="AC53" s="59"/>
-      <c r="AD53" s="59"/>
-      <c r="AE53" s="59"/>
-      <c r="AF53" s="59"/>
-      <c r="AG53" s="59"/>
-      <c r="AH53" s="59"/>
-      <c r="AI53" s="59"/>
-      <c r="AJ53" s="59"/>
-      <c r="AK53" s="60"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="23"/>
-      <c r="AP53" s="23"/>
-      <c r="AQ53" s="23"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="36"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="49">
-        <v>5</v>
-      </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="49" t="s">
+      <c r="A54" s="24">
+        <v>12</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N54" s="50"/>
-      <c r="O54" s="49" t="s">
+      <c r="N54" s="26"/>
+      <c r="O54" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="49" t="s">
+      <c r="P54" s="26"/>
+      <c r="Q54" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R54" s="50"/>
-      <c r="S54" s="49" t="s">
+      <c r="R54" s="25"/>
+      <c r="S54" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T54" s="51"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="49" t="s">
+      <c r="T54" s="27"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W54" s="51"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z54" s="59"/>
-      <c r="AA54" s="59"/>
-      <c r="AB54" s="59"/>
-      <c r="AC54" s="59"/>
-      <c r="AD54" s="59"/>
-      <c r="AE54" s="59"/>
-      <c r="AF54" s="59"/>
-      <c r="AG54" s="59"/>
-      <c r="AH54" s="59"/>
-      <c r="AI54" s="59"/>
-      <c r="AJ54" s="59"/>
-      <c r="AK54" s="60"/>
-      <c r="AL54" s="23"/>
-      <c r="AM54" s="23"/>
-      <c r="AN54" s="23"/>
-      <c r="AO54" s="23"/>
-      <c r="AP54" s="23"/>
-      <c r="AQ54" s="23"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="35"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="35"/>
+      <c r="AK54" s="36"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="49">
-        <v>6</v>
-      </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="49" t="s">
+      <c r="A55" s="24">
+        <v>13</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="50"/>
-      <c r="O55" s="49" t="s">
+      <c r="N55" s="26"/>
+      <c r="O55" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="49" t="s">
+      <c r="P55" s="26"/>
+      <c r="Q55" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R55" s="50"/>
-      <c r="S55" s="49" t="s">
+      <c r="R55" s="25"/>
+      <c r="S55" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T55" s="51"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="49" t="s">
+      <c r="T55" s="27"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W55" s="51"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z55" s="59"/>
-      <c r="AA55" s="59"/>
-      <c r="AB55" s="59"/>
-      <c r="AC55" s="59"/>
-      <c r="AD55" s="59"/>
-      <c r="AE55" s="59"/>
-      <c r="AF55" s="59"/>
-      <c r="AG55" s="59"/>
-      <c r="AH55" s="59"/>
-      <c r="AI55" s="59"/>
-      <c r="AJ55" s="59"/>
-      <c r="AK55" s="60"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="23"/>
-      <c r="AO55" s="23"/>
-      <c r="AP55" s="23"/>
-      <c r="AQ55" s="23"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="36"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="49">
-        <v>7</v>
-      </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="49" t="s">
+      <c r="A56" s="24">
+        <v>14</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="50"/>
-      <c r="O56" s="49" t="s">
+      <c r="N56" s="26"/>
+      <c r="O56" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="49" t="s">
+      <c r="P56" s="26"/>
+      <c r="Q56" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R56" s="50"/>
-      <c r="S56" s="49" t="s">
+      <c r="R56" s="25"/>
+      <c r="S56" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T56" s="51"/>
-      <c r="U56" s="50"/>
-      <c r="V56" s="49" t="s">
+      <c r="T56" s="27"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W56" s="51"/>
-      <c r="X56" s="50"/>
-      <c r="Y56" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
-      <c r="AC56" s="59"/>
-      <c r="AD56" s="59"/>
-      <c r="AE56" s="59"/>
-      <c r="AF56" s="59"/>
-      <c r="AG56" s="59"/>
-      <c r="AH56" s="59"/>
-      <c r="AI56" s="59"/>
-      <c r="AJ56" s="59"/>
-      <c r="AK56" s="60"/>
-      <c r="AL56" s="23"/>
-      <c r="AM56" s="23"/>
-      <c r="AN56" s="23"/>
-      <c r="AO56" s="23"/>
-      <c r="AP56" s="23"/>
-      <c r="AQ56" s="23"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
+      <c r="AG56" s="29"/>
+      <c r="AH56" s="29"/>
+      <c r="AI56" s="29"/>
+      <c r="AJ56" s="29"/>
+      <c r="AK56" s="30"/>
     </row>
     <row r="57" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A57" s="49">
-        <v>8</v>
-      </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="N57" s="50"/>
-      <c r="O57" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="R57" s="50"/>
-      <c r="S57" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="T57" s="51"/>
-      <c r="U57" s="50"/>
-      <c r="V57" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="W57" s="51"/>
-      <c r="X57" s="50"/>
-      <c r="Y57" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z57" s="59"/>
-      <c r="AA57" s="59"/>
-      <c r="AB57" s="59"/>
-      <c r="AC57" s="59"/>
-      <c r="AD57" s="59"/>
-      <c r="AE57" s="59"/>
-      <c r="AF57" s="59"/>
-      <c r="AG57" s="59"/>
-      <c r="AH57" s="59"/>
-      <c r="AI57" s="59"/>
-      <c r="AJ57" s="59"/>
-      <c r="AK57" s="60"/>
-      <c r="AL57" s="23"/>
-      <c r="AM57" s="23"/>
-      <c r="AN57" s="23"/>
-      <c r="AO57" s="23"/>
-      <c r="AP57" s="23"/>
-      <c r="AQ57" s="23"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="29"/>
+      <c r="AI57" s="29"/>
+      <c r="AJ57" s="29"/>
+      <c r="AK57" s="30"/>
     </row>
     <row r="58" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A58" s="49">
-        <v>9</v>
-      </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="N58" s="50"/>
-      <c r="O58" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="R58" s="50"/>
-      <c r="S58" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="T58" s="51"/>
-      <c r="U58" s="50"/>
-      <c r="V58" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="W58" s="51"/>
-      <c r="X58" s="50"/>
-      <c r="Y58" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
-      <c r="AC58" s="56"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="56"/>
-      <c r="AF58" s="56"/>
-      <c r="AG58" s="56"/>
-      <c r="AH58" s="56"/>
-      <c r="AI58" s="56"/>
-      <c r="AJ58" s="56"/>
-      <c r="AK58" s="57"/>
-    </row>
-    <row r="59" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A59" s="49">
-        <v>10</v>
-      </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R59" s="35"/>
-      <c r="S59" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="T59" s="51"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="W59" s="51"/>
-      <c r="X59" s="50"/>
-      <c r="Y59" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z59" s="56"/>
-      <c r="AA59" s="56"/>
-      <c r="AB59" s="56"/>
-      <c r="AC59" s="56"/>
-      <c r="AD59" s="56"/>
-      <c r="AE59" s="56"/>
-      <c r="AF59" s="56"/>
-      <c r="AG59" s="56"/>
-      <c r="AH59" s="56"/>
-      <c r="AI59" s="56"/>
-      <c r="AJ59" s="56"/>
-      <c r="AK59" s="57"/>
-    </row>
-    <row r="60" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A60" s="49">
-        <v>11</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N60" s="35"/>
-      <c r="O60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="R60" s="50"/>
-      <c r="S60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="T60" s="50"/>
-      <c r="U60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="V60" s="50"/>
-      <c r="W60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="X60" s="50"/>
-      <c r="Y60" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z60" s="56"/>
-      <c r="AA60" s="56"/>
-      <c r="AB60" s="56"/>
-      <c r="AC60" s="56"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="56"/>
-      <c r="AF60" s="56"/>
-      <c r="AG60" s="56"/>
-      <c r="AH60" s="56"/>
-      <c r="AI60" s="56"/>
-      <c r="AJ60" s="56"/>
-      <c r="AK60" s="57"/>
-    </row>
-    <row r="61" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A61" s="49">
-        <v>12</v>
-      </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N61" s="35"/>
-      <c r="O61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P61" s="50"/>
-      <c r="Q61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="R61" s="50"/>
-      <c r="S61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="T61" s="51"/>
-      <c r="U61" s="50"/>
-      <c r="V61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="W61" s="51"/>
-      <c r="X61" s="50"/>
-      <c r="Y61" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z61" s="56"/>
-      <c r="AA61" s="56"/>
-      <c r="AB61" s="56"/>
-      <c r="AC61" s="56"/>
-      <c r="AD61" s="56"/>
-      <c r="AE61" s="56"/>
-      <c r="AF61" s="56"/>
-      <c r="AG61" s="56"/>
-      <c r="AH61" s="56"/>
-      <c r="AI61" s="56"/>
-      <c r="AJ61" s="56"/>
-      <c r="AK61" s="57"/>
-    </row>
-    <row r="62" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="50"/>
-      <c r="V62" s="49"/>
-      <c r="W62" s="51"/>
-      <c r="X62" s="50"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="56"/>
-      <c r="AA62" s="56"/>
-      <c r="AB62" s="56"/>
-      <c r="AC62" s="56"/>
-      <c r="AD62" s="56"/>
-      <c r="AE62" s="56"/>
-      <c r="AF62" s="56"/>
-      <c r="AG62" s="56"/>
-      <c r="AH62" s="56"/>
-      <c r="AI62" s="56"/>
-      <c r="AJ62" s="56"/>
-      <c r="AK62" s="57"/>
-    </row>
-    <row r="63" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="50"/>
-      <c r="V63" s="49"/>
-      <c r="W63" s="51"/>
-      <c r="X63" s="50"/>
-      <c r="Y63" s="58"/>
-      <c r="Z63" s="59"/>
-      <c r="AA63" s="59"/>
-      <c r="AB63" s="59"/>
-      <c r="AC63" s="59"/>
-      <c r="AD63" s="59"/>
-      <c r="AE63" s="59"/>
-      <c r="AF63" s="59"/>
-      <c r="AG63" s="59"/>
-      <c r="AH63" s="59"/>
-      <c r="AI63" s="59"/>
-      <c r="AJ63" s="59"/>
-      <c r="AK63" s="60"/>
-    </row>
-    <row r="64" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="49"/>
-      <c r="W64" s="51"/>
-      <c r="X64" s="50"/>
-      <c r="Y64" s="58"/>
-      <c r="Z64" s="59"/>
-      <c r="AA64" s="59"/>
-      <c r="AB64" s="59"/>
-      <c r="AC64" s="59"/>
-      <c r="AD64" s="59"/>
-      <c r="AE64" s="59"/>
-      <c r="AF64" s="59"/>
-      <c r="AG64" s="59"/>
-      <c r="AH64" s="59"/>
-      <c r="AI64" s="59"/>
-      <c r="AJ64" s="59"/>
-      <c r="AK64" s="60"/>
-    </row>
-    <row r="65" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="51"/>
-      <c r="U65" s="50"/>
-      <c r="V65" s="49"/>
-      <c r="W65" s="51"/>
-      <c r="X65" s="50"/>
-      <c r="Y65" s="58"/>
-      <c r="Z65" s="59"/>
-      <c r="AA65" s="59"/>
-      <c r="AB65" s="59"/>
-      <c r="AC65" s="59"/>
-      <c r="AD65" s="59"/>
-      <c r="AE65" s="59"/>
-      <c r="AF65" s="59"/>
-      <c r="AG65" s="59"/>
-      <c r="AH65" s="59"/>
-      <c r="AI65" s="59"/>
-      <c r="AJ65" s="59"/>
-      <c r="AK65" s="60"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+      <c r="AF58" s="29"/>
+      <c r="AG58" s="29"/>
+      <c r="AH58" s="29"/>
+      <c r="AI58" s="29"/>
+      <c r="AJ58" s="29"/>
+      <c r="AK58" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="165">
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AK65"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AK64"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AK63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="Y57:AK57"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AK62"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="S48:U49"/>
-    <mergeCell ref="V48:X49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="M48:P49"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AK61"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Y60:AK60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AK59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AK58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
+  <mergeCells count="166">
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
     <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
     <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="AF4:AH5"/>
-    <mergeCell ref="AI4:AK5"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:H49"/>
-    <mergeCell ref="I48:L49"/>
-    <mergeCell ref="Q48:R49"/>
-    <mergeCell ref="A4:H5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="P4:R5"/>
-    <mergeCell ref="S4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="Y48:AK49"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="I3:O3"/>
@@ -8424,6 +8564,159 @@
     <mergeCell ref="AC3:AE3"/>
     <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AF4:AH5"/>
+    <mergeCell ref="AI4:AK5"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:H42"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="P4:R5"/>
+    <mergeCell ref="S4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="AC4:AE5"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="M41:P42"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="Y43:AK43"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AK58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AK57"/>
+    <mergeCell ref="M57:P57"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/プロフィール閲覧画面.xlsx
+++ b/設計書/画面レイアウト/プロフィール閲覧画面.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DF3DF6-9BBA-4BFC-B171-B33CBB2F8F1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93226F46-5A84-4E43-8447-7CEAF798C0EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="2420" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(G6-3)プロフィール閲覧画面" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'(G6-3)プロフィール閲覧画面'!$A$1:$AK$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'(G6-3)プロフィール閲覧画面'!$A$1:$AK$60</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'(G6-3)プロフィール閲覧画面'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -672,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -683,9 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -714,14 +711,29 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,7 +792,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,16 +801,31 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -818,21 +845,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,7 +882,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>37760</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -978,9 +990,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>136816</xdr:rowOff>
+      <xdr:colOff>88498</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54641</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3169607" cy="693075"/>
     <xdr:sp macro="" textlink="">
@@ -996,7 +1008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1493245" y="823557"/>
+          <a:off x="1545263" y="1481523"/>
           <a:ext cx="3169607" cy="693075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1036,7 +1048,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95289</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>15142</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1210588" cy="521425"/>
@@ -1093,13 +1105,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>89642</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>34686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47397</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>14598</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1115,7 +1127,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="380995" y="1491451"/>
+          <a:off x="380995" y="2238510"/>
           <a:ext cx="1123167" cy="2803794"/>
           <a:chOff x="402418" y="1831446"/>
           <a:chExt cx="954107" cy="2857688"/>
@@ -1504,13 +1516,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>237799</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>83991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>155207</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>125671</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1566,13 +1578,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>20934</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14598</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>94885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1633,13 +1645,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14598</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>82762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>81945</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47443</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1655,7 +1667,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1180010" y="911997"/>
+          <a:off x="1180010" y="1659056"/>
           <a:ext cx="358700" cy="278446"/>
           <a:chOff x="1160117" y="917763"/>
           <a:chExt cx="346830" cy="284673"/>
@@ -1766,13 +1778,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>280146</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>130001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>118283</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>93384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1833,13 +1845,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>267695</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>10001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>136960</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>124510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1900,13 +1912,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>199215</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>130734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>280146</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>111693</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1922,7 +1934,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2238686" y="1430616"/>
+          <a:off x="2238686" y="2177675"/>
           <a:ext cx="372284" cy="294724"/>
           <a:chOff x="928344" y="1284145"/>
           <a:chExt cx="399007" cy="264362"/>
@@ -2033,13 +2045,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>165287</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>250286</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>89843</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2055,7 +2067,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2496111" y="1928656"/>
+          <a:off x="2496111" y="2675715"/>
           <a:ext cx="376351" cy="245481"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
@@ -2165,13 +2177,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>146294</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>22048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>123777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2232,13 +2244,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>274595</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>24027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>116703</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>151726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2299,13 +2311,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123628</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>50575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>44956</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>134867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2366,13 +2378,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>101150</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>33073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>292213</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>17961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2433,13 +2445,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>112388</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>68263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>292213</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>48564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2500,13 +2512,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>269734</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>89017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>106770</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>39337</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2567,13 +2579,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>136160</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>145639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>158275</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>46946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2634,13 +2646,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>31293</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>147573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>255461</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2701,13 +2713,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>214588</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>13723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>58391</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>124081</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2768,13 +2780,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>48199</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>122268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>133198</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>50941</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2790,7 +2802,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2379023" y="2206562"/>
+          <a:off x="2379023" y="2953621"/>
           <a:ext cx="376351" cy="242438"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
@@ -2900,13 +2912,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180369</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>100658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>265368</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>29332</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2922,8 +2934,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1928487" y="2498717"/>
-          <a:ext cx="376352" cy="242439"/>
+          <a:off x="1928487" y="3245776"/>
+          <a:ext cx="376352" cy="242438"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3032,13 +3044,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>41268</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>150494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>126268</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>79167</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3054,8 +3066,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2080739" y="2862318"/>
-          <a:ext cx="376353" cy="242437"/>
+          <a:off x="2080739" y="3609376"/>
+          <a:ext cx="376353" cy="242438"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3164,13 +3176,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>15051</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>100051</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>88749</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3186,8 +3198,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2637227" y="3182621"/>
-          <a:ext cx="376353" cy="245481"/>
+          <a:off x="2637227" y="3929679"/>
+          <a:ext cx="376353" cy="245482"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3296,13 +3308,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>21167</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>47582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>106166</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>141126</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3318,8 +3330,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2643343" y="3543817"/>
-          <a:ext cx="376352" cy="250427"/>
+          <a:off x="2643343" y="4290876"/>
+          <a:ext cx="376352" cy="250426"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3428,13 +3440,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>166458</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>20327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>251456</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>108926</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3450,7 +3462,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2497282" y="3830327"/>
+          <a:off x="2497282" y="4577386"/>
           <a:ext cx="376350" cy="245481"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
@@ -3560,13 +3572,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>102541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>135799</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>31214</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3582,7 +3594,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1798918" y="4069423"/>
+          <a:off x="1798918" y="4816482"/>
           <a:ext cx="376352" cy="242438"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
@@ -3692,13 +3704,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>231406</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>24426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>29479</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>105500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3714,8 +3726,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="522759" y="5246367"/>
-          <a:ext cx="380779" cy="237957"/>
+          <a:off x="522759" y="5993426"/>
+          <a:ext cx="380779" cy="237956"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="177180" cy="289696"/>
         </a:xfrm>
@@ -3824,13 +3836,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57642</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>189769</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>14597</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3846,7 +3858,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2679818" y="5279795"/>
+          <a:off x="2679818" y="6026854"/>
           <a:ext cx="423480" cy="270508"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="170396" cy="421280"/>
@@ -3955,15 +3967,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>121219</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
+      <xdr:colOff>151101</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>216647</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119530</xdr:rowOff>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3978,7 +3990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5978160" y="2472765"/>
+          <a:off x="6008042" y="3197413"/>
           <a:ext cx="3591663" cy="2554941"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -4017,13 +4029,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>72989</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>42611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>270057</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>43792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4090,13 +4102,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>201577</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>51090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>252941</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4152,13 +4164,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12451</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>128311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>63815</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>97004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4214,13 +4226,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>197355</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>246129</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>121094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4276,13 +4288,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>205192</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>136711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>256556</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>105404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4338,13 +4350,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89911</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>151725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>320310</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>41746</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4416,13 +4428,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>162965</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>28097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>214329</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>154136</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4478,13 +4490,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>674</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>40011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>85755</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>8705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4537,13 +4549,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>153074</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>51924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>204438</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>20618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4615,13 +4627,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>78672</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>11239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>130036</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>137277</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4677,13 +4689,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>116781</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>48610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>162188</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>119670</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4699,7 +4711,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="990840" y="5270551"/>
+          <a:off x="990840" y="6017610"/>
           <a:ext cx="1210819" cy="541707"/>
           <a:chOff x="824211" y="6088897"/>
           <a:chExt cx="1184037" cy="539177"/>
@@ -4802,13 +4814,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>257557</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>52688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>18101</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>113768</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4824,7 +4836,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3171086" y="5274629"/>
+          <a:off x="3171086" y="6021688"/>
           <a:ext cx="1247191" cy="531727"/>
           <a:chOff x="3049715" y="6087717"/>
           <a:chExt cx="1184038" cy="529197"/>
@@ -4928,13 +4940,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>97117</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>52294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>283881</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>20987</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4990,13 +5002,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>52294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>224701</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>123354</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5012,7 +5024,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8075706" y="4176059"/>
+          <a:off x="8075706" y="4923118"/>
           <a:ext cx="1210819" cy="541707"/>
           <a:chOff x="824211" y="6088897"/>
           <a:chExt cx="1184037" cy="539177"/>
@@ -5115,13 +5127,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>231588</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>59765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>120845</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5137,7 +5149,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6379882" y="4183530"/>
+          <a:off x="6379882" y="4930589"/>
           <a:ext cx="1225177" cy="531727"/>
           <a:chOff x="3049715" y="6087717"/>
           <a:chExt cx="1184038" cy="529197"/>
@@ -5241,13 +5253,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>141942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>97117</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>141941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5308,13 +5320,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>141942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>7472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5375,13 +5387,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>209176</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>49950</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>136037</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5397,7 +5409,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8396941" y="3832411"/>
+          <a:off x="8396941" y="4579470"/>
           <a:ext cx="423480" cy="270508"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="170396" cy="421280"/>
@@ -5507,13 +5519,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>10459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>172468</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>124085</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5529,7 +5541,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6771341" y="3820459"/>
+          <a:off x="6771341" y="4567518"/>
           <a:ext cx="423480" cy="270508"/>
           <a:chOff x="928345" y="1284146"/>
           <a:chExt cx="170396" cy="421280"/>
@@ -5635,6 +5647,225 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74705</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52295</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1314600" cy="619593"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="図 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE3278C-603A-4936-968E-A9CBF61B7B55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="-1592" r="34854" b="1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="366058" y="881530"/>
+          <a:ext cx="1314600" cy="619593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126998</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379300" cy="372960"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="図 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D8BF8A-0EDE-430A-B9E7-A90990F1CE95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1875116" y="1023471"/>
+          <a:ext cx="379300" cy="372960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29882</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1518364" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE03C067-F43D-429E-BF4A-4CCBAE997CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2360706" y="993588"/>
+          <a:ext cx="1518364" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>〇〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ポイント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B8DC10-C36F-40DA-85AD-40951164CCEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4131235" y="799353"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5935,64 +6166,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
-  <dimension ref="A1:AQ58"/>
+  <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1796875" style="17" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="16" customWidth="1"/>
     <col min="7" max="11" width="4.1796875" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.6328125" style="1" customWidth="1"/>
     <col min="13" max="33" width="4.1796875" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.1796875" style="18" customWidth="1"/>
+    <col min="34" max="37" width="4.1796875" style="17" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -6034,153 +6265,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="57" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="57" t="s">
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="57" t="s">
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="57" t="s">
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="57" t="s">
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="57" t="s">
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="57" t="s">
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="59"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="56"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="48" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="50" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="48" t="s">
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="48" t="s">
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="60">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="57">
         <v>43719</v>
       </c>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="37" t="s">
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="43"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="42"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="46"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -6191,2370 +6422,2487 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="22"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="20"/>
     </row>
-    <row r="7" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="10"/>
+    <row r="7" spans="1:37" ht="12">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="27"/>
     </row>
-    <row r="8" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="10"/>
+    <row r="8" spans="1:37" ht="12">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="27"/>
     </row>
-    <row r="9" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9">
+    <row r="9" spans="1:37" ht="12">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="27"/>
+    </row>
+    <row r="10" spans="1:37" ht="12">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
         <v>1</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="10"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="27"/>
     </row>
-    <row r="10" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="10"/>
-    </row>
-    <row r="11" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="10"/>
+    <row r="11" spans="1:37" ht="12">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="27"/>
     </row>
     <row r="12" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="9"/>
     </row>
     <row r="13" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9">
-        <v>2</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="9"/>
     </row>
     <row r="14" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8">
+        <v>2</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="9"/>
     </row>
     <row r="15" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="U15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="9"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="9"/>
     </row>
     <row r="16" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="10"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+      <c r="U16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="9"/>
     </row>
     <row r="17" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="10"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="9"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="9"/>
     </row>
     <row r="18" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="10"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="9"/>
     </row>
     <row r="19" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="10"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="9"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="9"/>
     </row>
     <row r="20" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="10"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="9"/>
     </row>
     <row r="21" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="10"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="9"/>
     </row>
     <row r="22" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="10"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="9"/>
     </row>
     <row r="23" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="10"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="9"/>
     </row>
     <row r="24" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="9"/>
     </row>
     <row r="25" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="9"/>
     </row>
     <row r="26" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="9"/>
     </row>
     <row r="27" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="10"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="9"/>
     </row>
     <row r="28" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="10"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="9"/>
     </row>
     <row r="29" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="10"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="9"/>
     </row>
     <row r="30" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="10"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="9"/>
     </row>
     <row r="31" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="10"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="9"/>
     </row>
     <row r="32" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="10"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="9"/>
     </row>
-    <row r="33" spans="1:43" ht="12.5" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+    <row r="33" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="10"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="9"/>
     </row>
     <row r="34" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="9"/>
     </row>
     <row r="35" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9">
-        <v>3</v>
-      </c>
-      <c r="U35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="9"/>
     </row>
     <row r="36" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9"/>
-      <c r="AK36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="9"/>
     </row>
     <row r="37" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="9"/>
     </row>
-    <row r="38" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="10"/>
+    <row r="38" spans="1:43" ht="12.5" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="9"/>
     </row>
     <row r="39" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="9"/>
     </row>
     <row r="40" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="16"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8">
+        <v>3</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="9"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R41" s="26"/>
-      <c r="S41" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="T41" s="38"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="W41" s="38"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="38"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="38"/>
-      <c r="AH41" s="38"/>
-      <c r="AI41" s="38"/>
-      <c r="AJ41" s="38"/>
-      <c r="AK41" s="39"/>
-      <c r="AL41" s="23"/>
-      <c r="AM41" s="23"/>
-      <c r="AN41" s="23"/>
-      <c r="AO41" s="23"/>
-      <c r="AP41" s="23"/>
-      <c r="AQ41" s="23"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="9"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="40"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="41"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
-      <c r="AI42" s="41"/>
-      <c r="AJ42" s="41"/>
-      <c r="AK42" s="42"/>
-      <c r="AL42" s="23"/>
-      <c r="AM42" s="23"/>
-      <c r="AN42" s="23"/>
-      <c r="AO42" s="23"/>
-      <c r="AP42" s="23"/>
-      <c r="AQ42" s="23"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="9"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="24">
-        <v>1</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N43" s="25"/>
-      <c r="O43" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="R43" s="26"/>
-      <c r="S43" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="T43" s="27"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="W43" s="27"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="29"/>
-      <c r="AI43" s="29"/>
-      <c r="AJ43" s="29"/>
-      <c r="AK43" s="30"/>
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="23"/>
-      <c r="AO43" s="23"/>
-      <c r="AP43" s="23"/>
-      <c r="AQ43" s="23"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="9"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="24">
-        <v>2</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="R44" s="25"/>
-      <c r="S44" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="T44" s="27"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="W44" s="27"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="29"/>
-      <c r="AJ44" s="29"/>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="23"/>
-      <c r="AM44" s="23"/>
-      <c r="AN44" s="23"/>
-      <c r="AO44" s="23"/>
-      <c r="AP44" s="23"/>
-      <c r="AQ44" s="23"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="9"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="24">
-        <v>3</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N45" s="25"/>
-      <c r="O45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="R45" s="25"/>
-      <c r="S45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="T45" s="27"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="W45" s="27"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="23"/>
-      <c r="AM45" s="23"/>
-      <c r="AN45" s="23"/>
-      <c r="AO45" s="23"/>
-      <c r="AP45" s="23"/>
-      <c r="AQ45" s="23"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="15"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="24">
-        <v>4</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N46" s="25"/>
-      <c r="O46" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="R46" s="25"/>
-      <c r="S46" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="T46" s="27"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="W46" s="27"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="30"/>
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="23"/>
-      <c r="AO46" s="23"/>
-      <c r="AP46" s="23"/>
-      <c r="AQ46" s="23"/>
+      <c r="A46" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="30"/>
+      <c r="S46" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="T46" s="42"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="W46" s="42"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="42"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="42"/>
+      <c r="AH46" s="42"/>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="42"/>
+      <c r="AK46" s="43"/>
+      <c r="AL46" s="21"/>
+      <c r="AM46" s="21"/>
+      <c r="AN46" s="21"/>
+      <c r="AO46" s="21"/>
+      <c r="AP46" s="21"/>
+      <c r="AQ46" s="21"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="24">
-        <v>5</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N47" s="25"/>
-      <c r="O47" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="R47" s="25"/>
-      <c r="S47" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="T47" s="27"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="W47" s="27"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="23"/>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23"/>
-      <c r="AQ47" s="23"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="45"/>
+      <c r="AG47" s="45"/>
+      <c r="AH47" s="45"/>
+      <c r="AI47" s="45"/>
+      <c r="AJ47" s="45"/>
+      <c r="AK47" s="46"/>
+      <c r="AL47" s="21"/>
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21"/>
+      <c r="AQ47" s="21"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="24">
-        <v>6</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="24" t="s">
+      <c r="A48" s="28">
+        <v>1</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="25"/>
-      <c r="O48" s="24" t="s">
+      <c r="N48" s="29"/>
+      <c r="O48" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="24" t="s">
+      <c r="P48" s="29"/>
+      <c r="Q48" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="R48" s="25"/>
-      <c r="S48" s="24" t="s">
+      <c r="R48" s="30"/>
+      <c r="S48" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T48" s="27"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="24" t="s">
+      <c r="T48" s="31"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W48" s="27"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="23"/>
-      <c r="AM48" s="23"/>
-      <c r="AN48" s="23"/>
-      <c r="AO48" s="23"/>
-      <c r="AP48" s="23"/>
-      <c r="AQ48" s="23"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="33"/>
+      <c r="AC48" s="33"/>
+      <c r="AD48" s="33"/>
+      <c r="AE48" s="33"/>
+      <c r="AF48" s="33"/>
+      <c r="AG48" s="33"/>
+      <c r="AH48" s="33"/>
+      <c r="AI48" s="33"/>
+      <c r="AJ48" s="33"/>
+      <c r="AK48" s="34"/>
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="21"/>
+      <c r="AP48" s="21"/>
+      <c r="AQ48" s="21"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="24">
-        <v>7</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="24" t="s">
+      <c r="A49" s="28">
+        <v>2</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="24" t="s">
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N49" s="25"/>
-      <c r="O49" s="24" t="s">
+      <c r="R49" s="29"/>
+      <c r="S49" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="24" t="s">
+      <c r="T49" s="31"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R49" s="25"/>
-      <c r="S49" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="T49" s="27"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="W49" s="27"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="29"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="29"/>
-      <c r="AI49" s="29"/>
-      <c r="AJ49" s="29"/>
-      <c r="AK49" s="30"/>
-      <c r="AL49" s="23"/>
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="23"/>
-      <c r="AO49" s="23"/>
-      <c r="AP49" s="23"/>
-      <c r="AQ49" s="23"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="33"/>
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="33"/>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="33"/>
+      <c r="AK49" s="34"/>
+      <c r="AL49" s="21"/>
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="21"/>
+      <c r="AP49" s="21"/>
+      <c r="AQ49" s="21"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="24">
-        <v>8</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="24" t="s">
+      <c r="A50" s="28">
+        <v>3</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="24" t="s">
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N50" s="25"/>
-      <c r="O50" s="24" t="s">
+      <c r="N50" s="29"/>
+      <c r="O50" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="24" t="s">
+      <c r="P50" s="29"/>
+      <c r="Q50" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R50" s="25"/>
-      <c r="S50" s="24" t="s">
+      <c r="R50" s="29"/>
+      <c r="S50" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T50" s="27"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="24" t="s">
+      <c r="T50" s="31"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W50" s="27"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="30"/>
-      <c r="AL50" s="23"/>
-      <c r="AM50" s="23"/>
-      <c r="AN50" s="23"/>
-      <c r="AO50" s="23"/>
-      <c r="AP50" s="23"/>
-      <c r="AQ50" s="23"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="33"/>
+      <c r="AE50" s="33"/>
+      <c r="AF50" s="33"/>
+      <c r="AG50" s="33"/>
+      <c r="AH50" s="33"/>
+      <c r="AI50" s="33"/>
+      <c r="AJ50" s="33"/>
+      <c r="AK50" s="34"/>
+      <c r="AL50" s="21"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="21"/>
+      <c r="AO50" s="21"/>
+      <c r="AP50" s="21"/>
+      <c r="AQ50" s="21"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="24">
-        <v>9</v>
-      </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="24" t="s">
+      <c r="A51" s="28">
+        <v>4</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="24" t="s">
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N51" s="25"/>
-      <c r="O51" s="24" t="s">
+      <c r="N51" s="29"/>
+      <c r="O51" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="24" t="s">
+      <c r="P51" s="29"/>
+      <c r="Q51" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R51" s="25"/>
-      <c r="S51" s="24" t="s">
+      <c r="R51" s="29"/>
+      <c r="S51" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T51" s="27"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="24" t="s">
+      <c r="T51" s="31"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W51" s="27"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="36"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="33"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="33"/>
+      <c r="AG51" s="33"/>
+      <c r="AH51" s="33"/>
+      <c r="AI51" s="33"/>
+      <c r="AJ51" s="33"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="21"/>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="21"/>
+      <c r="AO51" s="21"/>
+      <c r="AP51" s="21"/>
+      <c r="AQ51" s="21"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="24">
-        <v>10</v>
-      </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="24" t="s">
+      <c r="A52" s="28">
+        <v>5</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="26" t="s">
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R52" s="26"/>
-      <c r="S52" s="24" t="s">
+      <c r="N52" s="29"/>
+      <c r="O52" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T52" s="27"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="24" t="s">
+      <c r="P52" s="29"/>
+      <c r="Q52" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W52" s="27"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
-      <c r="AG52" s="35"/>
-      <c r="AH52" s="35"/>
-      <c r="AI52" s="35"/>
-      <c r="AJ52" s="35"/>
-      <c r="AK52" s="36"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T52" s="31"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W52" s="31"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="33"/>
+      <c r="AG52" s="33"/>
+      <c r="AH52" s="33"/>
+      <c r="AI52" s="33"/>
+      <c r="AJ52" s="33"/>
+      <c r="AK52" s="34"/>
+      <c r="AL52" s="21"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+      <c r="AP52" s="21"/>
+      <c r="AQ52" s="21"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="24">
-        <v>11</v>
-      </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26" t="s">
+      <c r="A53" s="28">
+        <v>6</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N53" s="26"/>
-      <c r="O53" s="24" t="s">
+      <c r="N53" s="29"/>
+      <c r="O53" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="24" t="s">
+      <c r="P53" s="29"/>
+      <c r="Q53" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R53" s="25"/>
-      <c r="S53" s="24" t="s">
+      <c r="R53" s="29"/>
+      <c r="S53" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T53" s="25"/>
-      <c r="U53" s="24" t="s">
+      <c r="T53" s="31"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="V53" s="25"/>
-      <c r="W53" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35"/>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="36"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="33"/>
+      <c r="AG53" s="33"/>
+      <c r="AH53" s="33"/>
+      <c r="AI53" s="33"/>
+      <c r="AJ53" s="33"/>
+      <c r="AK53" s="34"/>
+      <c r="AL53" s="21"/>
+      <c r="AM53" s="21"/>
+      <c r="AN53" s="21"/>
+      <c r="AO53" s="21"/>
+      <c r="AP53" s="21"/>
+      <c r="AQ53" s="21"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="24">
-        <v>12</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26" t="s">
+      <c r="A54" s="28">
+        <v>7</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26" t="s">
+      <c r="N54" s="29"/>
+      <c r="O54" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="24" t="s">
+      <c r="P54" s="29"/>
+      <c r="Q54" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R54" s="25"/>
-      <c r="S54" s="24" t="s">
+      <c r="R54" s="29"/>
+      <c r="S54" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T54" s="27"/>
-      <c r="U54" s="25"/>
-      <c r="V54" s="24" t="s">
+      <c r="T54" s="31"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W54" s="27"/>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="35"/>
-      <c r="AG54" s="35"/>
-      <c r="AH54" s="35"/>
-      <c r="AI54" s="35"/>
-      <c r="AJ54" s="35"/>
-      <c r="AK54" s="36"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="33"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="33"/>
+      <c r="AG54" s="33"/>
+      <c r="AH54" s="33"/>
+      <c r="AI54" s="33"/>
+      <c r="AJ54" s="33"/>
+      <c r="AK54" s="34"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="24">
-        <v>13</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26" t="s">
+      <c r="A55" s="28">
+        <v>8</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26" t="s">
+      <c r="N55" s="29"/>
+      <c r="O55" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="24" t="s">
+      <c r="P55" s="29"/>
+      <c r="Q55" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R55" s="25"/>
-      <c r="S55" s="24" t="s">
+      <c r="R55" s="29"/>
+      <c r="S55" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T55" s="27"/>
-      <c r="U55" s="25"/>
-      <c r="V55" s="24" t="s">
+      <c r="T55" s="31"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W55" s="27"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="36"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="33"/>
+      <c r="AI55" s="33"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="34"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="24">
-        <v>14</v>
-      </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26" t="s">
+      <c r="A56" s="28">
+        <v>9</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26" t="s">
+      <c r="N56" s="29"/>
+      <c r="O56" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="24" t="s">
+      <c r="P56" s="29"/>
+      <c r="Q56" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R56" s="25"/>
-      <c r="S56" s="24" t="s">
+      <c r="R56" s="29"/>
+      <c r="S56" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T56" s="27"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="24" t="s">
+      <c r="T56" s="31"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W56" s="27"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="29"/>
-      <c r="AD56" s="29"/>
-      <c r="AE56" s="29"/>
-      <c r="AF56" s="29"/>
-      <c r="AG56" s="29"/>
-      <c r="AH56" s="29"/>
-      <c r="AI56" s="29"/>
-      <c r="AJ56" s="29"/>
-      <c r="AK56" s="30"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AH56" s="39"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="40"/>
     </row>
     <row r="57" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
-      <c r="AD57" s="29"/>
-      <c r="AE57" s="29"/>
-      <c r="AF57" s="29"/>
-      <c r="AG57" s="29"/>
-      <c r="AH57" s="29"/>
-      <c r="AI57" s="29"/>
-      <c r="AJ57" s="29"/>
-      <c r="AK57" s="30"/>
+      <c r="A57" s="28">
+        <v>10</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="R57" s="30"/>
+      <c r="S57" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T57" s="31"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W57" s="31"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+      <c r="AF57" s="39"/>
+      <c r="AG57" s="39"/>
+      <c r="AH57" s="39"/>
+      <c r="AI57" s="39"/>
+      <c r="AJ57" s="39"/>
+      <c r="AK57" s="40"/>
     </row>
     <row r="58" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="25"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
-      <c r="AE58" s="29"/>
-      <c r="AF58" s="29"/>
-      <c r="AG58" s="29"/>
-      <c r="AH58" s="29"/>
-      <c r="AI58" s="29"/>
-      <c r="AJ58" s="29"/>
-      <c r="AK58" s="30"/>
+      <c r="A58" s="28">
+        <v>11</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="30"/>
+      <c r="O58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R58" s="29"/>
+      <c r="S58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T58" s="29"/>
+      <c r="U58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="V58" s="29"/>
+      <c r="W58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="39"/>
+      <c r="AI58" s="39"/>
+      <c r="AJ58" s="39"/>
+      <c r="AK58" s="40"/>
+    </row>
+    <row r="59" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A59" s="28">
+        <v>12</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R59" s="29"/>
+      <c r="S59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T59" s="31"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W59" s="31"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="39"/>
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="39"/>
+      <c r="AK59" s="40"/>
+    </row>
+    <row r="60" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A60" s="28">
+        <v>13</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R60" s="29"/>
+      <c r="S60" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T60" s="31"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W60" s="31"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="39"/>
+      <c r="AE60" s="39"/>
+      <c r="AF60" s="39"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="39"/>
+      <c r="AK60" s="40"/>
+    </row>
+    <row r="61" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A61" s="28">
+        <v>14</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R61" s="29"/>
+      <c r="S61" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T61" s="31"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W61" s="31"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="33"/>
+      <c r="AI61" s="33"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="34"/>
+    </row>
+    <row r="62" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="33"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="33"/>
+      <c r="AI62" s="33"/>
+      <c r="AJ62" s="33"/>
+      <c r="AK62" s="34"/>
+    </row>
+    <row r="63" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="33"/>
+      <c r="AH63" s="33"/>
+      <c r="AI63" s="33"/>
+      <c r="AJ63" s="33"/>
+      <c r="AK63" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="I3:O3"/>
@@ -8566,149 +8914,71 @@
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="AF4:AH5"/>
     <mergeCell ref="AI4:AK5"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:H42"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:H47"/>
+    <mergeCell ref="I46:L47"/>
+    <mergeCell ref="Q46:R47"/>
     <mergeCell ref="A4:H5"/>
     <mergeCell ref="I4:O5"/>
     <mergeCell ref="P4:R5"/>
     <mergeCell ref="S4:Y5"/>
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Y46:AK47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="Q49:R49"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="I48:L48"/>
     <mergeCell ref="M48:N48"/>
     <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y48:AK48"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:H51"/>
     <mergeCell ref="I51:L51"/>
     <mergeCell ref="M51:N51"/>
     <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
     <mergeCell ref="I54:L54"/>
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="Q54:R54"/>
     <mergeCell ref="O54:P54"/>
     <mergeCell ref="S54:U54"/>
     <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="M41:P42"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AK58"/>
-    <mergeCell ref="M58:P58"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="C57:H57"/>
     <mergeCell ref="I57:L57"/>
@@ -8717,6 +8987,84 @@
     <mergeCell ref="V57:X57"/>
     <mergeCell ref="Y57:AK57"/>
     <mergeCell ref="M57:P57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AK59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Y58:AK58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="S46:U47"/>
+    <mergeCell ref="V46:X47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="M46:P47"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AK61"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AK60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AK63"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AK62"/>
+    <mergeCell ref="M62:P62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
